--- a/utils/lambda.xlsx
+++ b/utils/lambda.xlsx
@@ -8,27 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\mip-serverless-tcc\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766A342D-2F66-423B-85CD-F4C96B4BD5CD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB101F23-61CE-4A1C-B8E7-E37146C5D2A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="317">
   <si>
     <t>file</t>
   </si>
@@ -171,6 +163,12 @@
     <t>br.edu.utfpr.cp.emater.midmipsystem.dto.base.FieldDTO</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>D:\Projetos\mip-serverless-tcc\front-end\mip\src\main\java\br\edu\utfpr\cp\emater\midmipsystem\dto\base\SurveyDTO.java</t>
   </si>
   <si>
@@ -687,12 +685,6 @@
     <t>br.edu.utfpr.cp.emater.midmipsystem.service.base.FarmerService</t>
   </si>
   <si>
-    <t>D:\Projetos\mip-serverless-tcc\front-end\mip\src\main\java\br\edu\utfpr\cp\emater\midmipsystem\service\base\FieldService.java</t>
-  </si>
-  <si>
-    <t>br.edu.utfpr.cp.emater.midmipsystem.service.base.FieldService</t>
-  </si>
-  <si>
     <t>D:\Projetos\mip-serverless-tcc\front-end\mip\src\main\java\br\edu\utfpr\cp\emater\midmipsystem\service\base\LocalDateTimeConverter.java</t>
   </si>
   <si>
@@ -829,12 +821,6 @@
   </si>
   <si>
     <t>br.edu.utfpr.cp.emater.midmipsystem.service.survey.HarvestService</t>
-  </si>
-  <si>
-    <t>D:\Projetos\mip-serverless-tcc\front-end\mip\src\main\java\br\edu\utfpr\cp\emater\midmipsystem\service\survey\SurveyService.java</t>
-  </si>
-  <si>
-    <t>br.edu.utfpr.cp.emater.midmipsystem.service.survey.SurveyService</t>
   </si>
   <si>
     <t>D:\Projetos\mip-serverless-tcc\front-end\mip\src\main\java\br\edu\utfpr\cp\emater\midmipsystem\view\analysis\DashboardController.java</t>
@@ -1362,10 +1348,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet 1"/>
-  <dimension ref="A1:AS138"/>
+  <dimension ref="A1:AS136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I137"/>
+    <sheetView tabSelected="1" topLeftCell="B102" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1637,8 +1623,8 @@
       <c r="AQ2">
         <v>1</v>
       </c>
-      <c r="AR2">
-        <v>0</v>
+      <c r="AR2" t="s">
+        <v>48</v>
       </c>
       <c r="AS2" t="s">
         <v>44</v>
@@ -1646,10 +1632,10 @@
     </row>
     <row r="3" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -1774,8 +1760,8 @@
       <c r="AQ3">
         <v>1</v>
       </c>
-      <c r="AR3">
-        <v>0</v>
+      <c r="AR3" t="s">
+        <v>48</v>
       </c>
       <c r="AS3" t="s">
         <v>44</v>
@@ -1783,10 +1769,10 @@
     </row>
     <row r="4" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -1911,8 +1897,8 @@
       <c r="AQ4">
         <v>1</v>
       </c>
-      <c r="AR4">
-        <v>0</v>
+      <c r="AR4" t="s">
+        <v>48</v>
       </c>
       <c r="AS4" t="s">
         <v>44</v>
@@ -1920,10 +1906,10 @@
     </row>
     <row r="5" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -2048,8 +2034,8 @@
       <c r="AQ5">
         <v>1025</v>
       </c>
-      <c r="AR5">
-        <v>1</v>
+      <c r="AR5" t="s">
+        <v>47</v>
       </c>
       <c r="AS5" t="s">
         <v>44</v>
@@ -2057,10 +2043,10 @@
     </row>
     <row r="6" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -2185,8 +2171,8 @@
       <c r="AQ6">
         <v>1</v>
       </c>
-      <c r="AR6">
-        <v>0</v>
+      <c r="AR6" t="s">
+        <v>48</v>
       </c>
       <c r="AS6" t="s">
         <v>44</v>
@@ -2194,10 +2180,10 @@
     </row>
     <row r="7" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -2322,8 +2308,8 @@
       <c r="AQ7">
         <v>1</v>
       </c>
-      <c r="AR7">
-        <v>0</v>
+      <c r="AR7" t="s">
+        <v>48</v>
       </c>
       <c r="AS7" t="s">
         <v>44</v>
@@ -2331,10 +2317,10 @@
     </row>
     <row r="8" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -2459,8 +2445,8 @@
       <c r="AQ8">
         <v>1</v>
       </c>
-      <c r="AR8">
-        <v>0</v>
+      <c r="AR8" t="s">
+        <v>48</v>
       </c>
       <c r="AS8" t="s">
         <v>44</v>
@@ -2468,10 +2454,10 @@
     </row>
     <row r="9" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -2596,8 +2582,8 @@
       <c r="AQ9">
         <v>1</v>
       </c>
-      <c r="AR9">
-        <v>0</v>
+      <c r="AR9" t="s">
+        <v>48</v>
       </c>
       <c r="AS9" t="s">
         <v>44</v>
@@ -2605,10 +2591,10 @@
     </row>
     <row r="10" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -2733,8 +2719,8 @@
       <c r="AQ10">
         <v>1025</v>
       </c>
-      <c r="AR10">
-        <v>0</v>
+      <c r="AR10" t="s">
+        <v>48</v>
       </c>
       <c r="AS10" t="s">
         <v>44</v>
@@ -2742,10 +2728,10 @@
     </row>
     <row r="11" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -2870,8 +2856,8 @@
       <c r="AQ11">
         <v>1</v>
       </c>
-      <c r="AR11">
-        <v>0</v>
+      <c r="AR11" t="s">
+        <v>48</v>
       </c>
       <c r="AS11" t="s">
         <v>44</v>
@@ -2879,13 +2865,13 @@
     </row>
     <row r="12" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3007,8 +2993,8 @@
       <c r="AQ12">
         <v>1</v>
       </c>
-      <c r="AR12">
-        <v>0</v>
+      <c r="AR12" t="s">
+        <v>48</v>
       </c>
       <c r="AS12" t="s">
         <v>44</v>
@@ -3016,10 +3002,10 @@
     </row>
     <row r="13" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -3144,8 +3130,8 @@
       <c r="AQ13">
         <v>1</v>
       </c>
-      <c r="AR13">
-        <v>0</v>
+      <c r="AR13" t="s">
+        <v>48</v>
       </c>
       <c r="AS13" t="s">
         <v>44</v>
@@ -3153,13 +3139,13 @@
     </row>
     <row r="14" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -3281,8 +3267,8 @@
       <c r="AQ14">
         <v>1</v>
       </c>
-      <c r="AR14">
-        <v>0</v>
+      <c r="AR14" t="s">
+        <v>48</v>
       </c>
       <c r="AS14" t="s">
         <v>44</v>
@@ -3290,13 +3276,13 @@
     </row>
     <row r="15" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -3418,8 +3404,8 @@
       <c r="AQ15">
         <v>1</v>
       </c>
-      <c r="AR15">
-        <v>0</v>
+      <c r="AR15" t="s">
+        <v>48</v>
       </c>
       <c r="AS15" t="s">
         <v>44</v>
@@ -3427,10 +3413,10 @@
     </row>
     <row r="16" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -3555,8 +3541,8 @@
       <c r="AQ16">
         <v>1</v>
       </c>
-      <c r="AR16">
-        <v>0</v>
+      <c r="AR16" t="s">
+        <v>48</v>
       </c>
       <c r="AS16" t="s">
         <v>44</v>
@@ -3564,10 +3550,10 @@
     </row>
     <row r="17" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -3692,8 +3678,8 @@
       <c r="AQ17">
         <v>1</v>
       </c>
-      <c r="AR17">
-        <v>0</v>
+      <c r="AR17" t="s">
+        <v>48</v>
       </c>
       <c r="AS17" t="s">
         <v>44</v>
@@ -3701,10 +3687,10 @@
     </row>
     <row r="18" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -3829,8 +3815,8 @@
       <c r="AQ18">
         <v>1</v>
       </c>
-      <c r="AR18">
-        <v>0</v>
+      <c r="AR18" t="s">
+        <v>48</v>
       </c>
       <c r="AS18" t="s">
         <v>44</v>
@@ -3838,10 +3824,10 @@
     </row>
     <row r="19" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
@@ -3966,8 +3952,8 @@
       <c r="AQ19">
         <v>1</v>
       </c>
-      <c r="AR19">
-        <v>0</v>
+      <c r="AR19" t="s">
+        <v>48</v>
       </c>
       <c r="AS19" t="s">
         <v>44</v>
@@ -3975,10 +3961,10 @@
     </row>
     <row r="20" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -4103,8 +4089,8 @@
       <c r="AQ20">
         <v>1</v>
       </c>
-      <c r="AR20">
-        <v>0</v>
+      <c r="AR20" t="s">
+        <v>48</v>
       </c>
       <c r="AS20" t="s">
         <v>44</v>
@@ -4112,13 +4098,13 @@
     </row>
     <row r="21" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4240,8 +4226,8 @@
       <c r="AQ21">
         <v>1</v>
       </c>
-      <c r="AR21">
-        <v>0</v>
+      <c r="AR21" t="s">
+        <v>48</v>
       </c>
       <c r="AS21" t="s">
         <v>44</v>
@@ -4249,10 +4235,10 @@
     </row>
     <row r="22" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -4377,8 +4363,8 @@
       <c r="AQ22">
         <v>1</v>
       </c>
-      <c r="AR22">
-        <v>0</v>
+      <c r="AR22" t="s">
+        <v>48</v>
       </c>
       <c r="AS22" t="s">
         <v>44</v>
@@ -4386,10 +4372,10 @@
     </row>
     <row r="23" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -4514,8 +4500,8 @@
       <c r="AQ23">
         <v>1</v>
       </c>
-      <c r="AR23">
-        <v>0</v>
+      <c r="AR23" t="s">
+        <v>48</v>
       </c>
       <c r="AS23" t="s">
         <v>44</v>
@@ -4523,10 +4509,10 @@
     </row>
     <row r="24" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -4651,8 +4637,8 @@
       <c r="AQ24">
         <v>1</v>
       </c>
-      <c r="AR24">
-        <v>0</v>
+      <c r="AR24" t="s">
+        <v>48</v>
       </c>
       <c r="AS24" t="s">
         <v>44</v>
@@ -4660,10 +4646,10 @@
     </row>
     <row r="25" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -4788,8 +4774,8 @@
       <c r="AQ25">
         <v>1</v>
       </c>
-      <c r="AR25">
-        <v>0</v>
+      <c r="AR25" t="s">
+        <v>48</v>
       </c>
       <c r="AS25" t="s">
         <v>44</v>
@@ -4797,10 +4783,10 @@
     </row>
     <row r="26" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -4925,8 +4911,8 @@
       <c r="AQ26">
         <v>1</v>
       </c>
-      <c r="AR26">
-        <v>0</v>
+      <c r="AR26" t="s">
+        <v>48</v>
       </c>
       <c r="AS26" t="s">
         <v>44</v>
@@ -4934,10 +4920,10 @@
     </row>
     <row r="27" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -5062,8 +5048,8 @@
       <c r="AQ27">
         <v>1</v>
       </c>
-      <c r="AR27">
-        <v>0</v>
+      <c r="AR27" t="s">
+        <v>48</v>
       </c>
       <c r="AS27" t="s">
         <v>44</v>
@@ -5071,10 +5057,10 @@
     </row>
     <row r="28" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -5199,8 +5185,8 @@
       <c r="AQ28">
         <v>1</v>
       </c>
-      <c r="AR28">
-        <v>0</v>
+      <c r="AR28" t="s">
+        <v>48</v>
       </c>
       <c r="AS28" t="s">
         <v>44</v>
@@ -5208,13 +5194,13 @@
     </row>
     <row r="29" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -5336,8 +5322,8 @@
       <c r="AQ29">
         <v>1</v>
       </c>
-      <c r="AR29">
-        <v>0</v>
+      <c r="AR29" t="s">
+        <v>48</v>
       </c>
       <c r="AS29" t="s">
         <v>44</v>
@@ -5345,10 +5331,10 @@
     </row>
     <row r="30" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -5473,8 +5459,8 @@
       <c r="AQ30">
         <v>1</v>
       </c>
-      <c r="AR30">
-        <v>0</v>
+      <c r="AR30" t="s">
+        <v>48</v>
       </c>
       <c r="AS30" t="s">
         <v>44</v>
@@ -5482,13 +5468,13 @@
     </row>
     <row r="31" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -5610,8 +5596,8 @@
       <c r="AQ31">
         <v>1</v>
       </c>
-      <c r="AR31">
-        <v>0</v>
+      <c r="AR31" t="s">
+        <v>48</v>
       </c>
       <c r="AS31" t="s">
         <v>44</v>
@@ -5619,10 +5605,10 @@
     </row>
     <row r="32" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -5747,8 +5733,8 @@
       <c r="AQ32">
         <v>1</v>
       </c>
-      <c r="AR32">
-        <v>0</v>
+      <c r="AR32" t="s">
+        <v>48</v>
       </c>
       <c r="AS32" t="s">
         <v>44</v>
@@ -5756,10 +5742,10 @@
     </row>
     <row r="33" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -5884,8 +5870,8 @@
       <c r="AQ33">
         <v>1</v>
       </c>
-      <c r="AR33">
-        <v>0</v>
+      <c r="AR33" t="s">
+        <v>48</v>
       </c>
       <c r="AS33" t="s">
         <v>44</v>
@@ -5893,10 +5879,10 @@
     </row>
     <row r="34" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -6021,8 +6007,8 @@
       <c r="AQ34">
         <v>1</v>
       </c>
-      <c r="AR34">
-        <v>0</v>
+      <c r="AR34" t="s">
+        <v>48</v>
       </c>
       <c r="AS34" t="s">
         <v>44</v>
@@ -6030,13 +6016,13 @@
     </row>
     <row r="35" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -6158,8 +6144,8 @@
       <c r="AQ35">
         <v>1</v>
       </c>
-      <c r="AR35">
-        <v>0</v>
+      <c r="AR35" t="s">
+        <v>48</v>
       </c>
       <c r="AS35" t="s">
         <v>44</v>
@@ -6167,13 +6153,13 @@
     </row>
     <row r="36" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -6295,8 +6281,8 @@
       <c r="AQ36">
         <v>1</v>
       </c>
-      <c r="AR36">
-        <v>0</v>
+      <c r="AR36" t="s">
+        <v>48</v>
       </c>
       <c r="AS36" t="s">
         <v>44</v>
@@ -6304,10 +6290,10 @@
     </row>
     <row r="37" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
@@ -6432,8 +6418,8 @@
       <c r="AQ37">
         <v>1</v>
       </c>
-      <c r="AR37">
-        <v>0</v>
+      <c r="AR37" t="s">
+        <v>48</v>
       </c>
       <c r="AS37" t="s">
         <v>44</v>
@@ -6441,10 +6427,10 @@
     </row>
     <row r="38" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
@@ -6569,8 +6555,8 @@
       <c r="AQ38">
         <v>1</v>
       </c>
-      <c r="AR38">
-        <v>0</v>
+      <c r="AR38" t="s">
+        <v>48</v>
       </c>
       <c r="AS38" t="s">
         <v>44</v>
@@ -6578,10 +6564,10 @@
     </row>
     <row r="39" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
@@ -6706,8 +6692,8 @@
       <c r="AQ39">
         <v>1</v>
       </c>
-      <c r="AR39">
-        <v>0</v>
+      <c r="AR39" t="s">
+        <v>48</v>
       </c>
       <c r="AS39" t="s">
         <v>44</v>
@@ -6715,10 +6701,10 @@
     </row>
     <row r="40" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
@@ -6843,8 +6829,8 @@
       <c r="AQ40">
         <v>1</v>
       </c>
-      <c r="AR40">
-        <v>0</v>
+      <c r="AR40" t="s">
+        <v>48</v>
       </c>
       <c r="AS40" t="s">
         <v>44</v>
@@ -6852,10 +6838,10 @@
     </row>
     <row r="41" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -6980,8 +6966,8 @@
       <c r="AQ41">
         <v>1</v>
       </c>
-      <c r="AR41">
-        <v>0</v>
+      <c r="AR41" t="s">
+        <v>48</v>
       </c>
       <c r="AS41" t="s">
         <v>44</v>
@@ -6989,10 +6975,10 @@
     </row>
     <row r="42" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -7117,8 +7103,8 @@
       <c r="AQ42">
         <v>1</v>
       </c>
-      <c r="AR42">
-        <v>0</v>
+      <c r="AR42" t="s">
+        <v>48</v>
       </c>
       <c r="AS42" t="s">
         <v>44</v>
@@ -7126,10 +7112,10 @@
     </row>
     <row r="43" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
@@ -7254,8 +7240,8 @@
       <c r="AQ43">
         <v>1</v>
       </c>
-      <c r="AR43">
-        <v>0</v>
+      <c r="AR43" t="s">
+        <v>48</v>
       </c>
       <c r="AS43" t="s">
         <v>44</v>
@@ -7263,10 +7249,10 @@
     </row>
     <row r="44" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
@@ -7391,8 +7377,8 @@
       <c r="AQ44">
         <v>1</v>
       </c>
-      <c r="AR44">
-        <v>0</v>
+      <c r="AR44" t="s">
+        <v>48</v>
       </c>
       <c r="AS44" t="s">
         <v>44</v>
@@ -7400,10 +7386,10 @@
     </row>
     <row r="45" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
@@ -7528,8 +7514,8 @@
       <c r="AQ45">
         <v>1</v>
       </c>
-      <c r="AR45">
-        <v>0</v>
+      <c r="AR45" t="s">
+        <v>48</v>
       </c>
       <c r="AS45" t="s">
         <v>44</v>
@@ -7537,10 +7523,10 @@
     </row>
     <row r="46" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
@@ -7665,8 +7651,8 @@
       <c r="AQ46">
         <v>1</v>
       </c>
-      <c r="AR46">
-        <v>0</v>
+      <c r="AR46" t="s">
+        <v>48</v>
       </c>
       <c r="AS46" t="s">
         <v>44</v>
@@ -7674,10 +7660,10 @@
     </row>
     <row r="47" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
@@ -7802,8 +7788,8 @@
       <c r="AQ47">
         <v>1</v>
       </c>
-      <c r="AR47">
-        <v>0</v>
+      <c r="AR47" t="s">
+        <v>48</v>
       </c>
       <c r="AS47" t="s">
         <v>44</v>
@@ -7811,10 +7797,10 @@
     </row>
     <row r="48" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
@@ -7939,8 +7925,8 @@
       <c r="AQ48">
         <v>1</v>
       </c>
-      <c r="AR48">
-        <v>0</v>
+      <c r="AR48" t="s">
+        <v>48</v>
       </c>
       <c r="AS48" t="s">
         <v>44</v>
@@ -7948,10 +7934,10 @@
     </row>
     <row r="49" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
@@ -8076,8 +8062,8 @@
       <c r="AQ49">
         <v>1</v>
       </c>
-      <c r="AR49">
-        <v>0</v>
+      <c r="AR49" t="s">
+        <v>48</v>
       </c>
       <c r="AS49" t="s">
         <v>44</v>
@@ -8085,10 +8071,10 @@
     </row>
     <row r="50" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
@@ -8213,8 +8199,8 @@
       <c r="AQ50">
         <v>1</v>
       </c>
-      <c r="AR50">
-        <v>0</v>
+      <c r="AR50" t="s">
+        <v>48</v>
       </c>
       <c r="AS50" t="s">
         <v>44</v>
@@ -8222,10 +8208,10 @@
     </row>
     <row r="51" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
@@ -8350,8 +8336,8 @@
       <c r="AQ51">
         <v>1</v>
       </c>
-      <c r="AR51">
-        <v>0</v>
+      <c r="AR51" t="s">
+        <v>48</v>
       </c>
       <c r="AS51" t="s">
         <v>44</v>
@@ -8359,10 +8345,10 @@
     </row>
     <row r="52" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
@@ -8487,8 +8473,8 @@
       <c r="AQ52">
         <v>1</v>
       </c>
-      <c r="AR52">
-        <v>0</v>
+      <c r="AR52" t="s">
+        <v>48</v>
       </c>
       <c r="AS52" t="s">
         <v>44</v>
@@ -8496,10 +8482,10 @@
     </row>
     <row r="53" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B53" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
@@ -8624,8 +8610,8 @@
       <c r="AQ53">
         <v>1</v>
       </c>
-      <c r="AR53">
-        <v>0</v>
+      <c r="AR53" t="s">
+        <v>48</v>
       </c>
       <c r="AS53" t="s">
         <v>44</v>
@@ -8633,10 +8619,10 @@
     </row>
     <row r="54" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B54" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
@@ -8761,8 +8747,8 @@
       <c r="AQ54">
         <v>1</v>
       </c>
-      <c r="AR54">
-        <v>0</v>
+      <c r="AR54" t="s">
+        <v>48</v>
       </c>
       <c r="AS54" t="s">
         <v>44</v>
@@ -8770,10 +8756,10 @@
     </row>
     <row r="55" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B55" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
@@ -8898,8 +8884,8 @@
       <c r="AQ55">
         <v>1</v>
       </c>
-      <c r="AR55">
-        <v>0</v>
+      <c r="AR55" t="s">
+        <v>48</v>
       </c>
       <c r="AS55" t="s">
         <v>44</v>
@@ -8907,13 +8893,13 @@
     </row>
     <row r="56" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B56" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C56" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -9035,8 +9021,8 @@
       <c r="AQ56">
         <v>-1</v>
       </c>
-      <c r="AR56">
-        <v>0</v>
+      <c r="AR56" t="s">
+        <v>48</v>
       </c>
       <c r="AS56" t="s">
         <v>44</v>
@@ -9044,10 +9030,10 @@
     </row>
     <row r="57" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B57" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
@@ -9172,8 +9158,8 @@
       <c r="AQ57">
         <v>1</v>
       </c>
-      <c r="AR57">
-        <v>0</v>
+      <c r="AR57" t="s">
+        <v>48</v>
       </c>
       <c r="AS57" t="s">
         <v>44</v>
@@ -9181,10 +9167,10 @@
     </row>
     <row r="58" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B58" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
@@ -9309,8 +9295,8 @@
       <c r="AQ58">
         <v>1</v>
       </c>
-      <c r="AR58">
-        <v>0</v>
+      <c r="AR58" t="s">
+        <v>48</v>
       </c>
       <c r="AS58" t="s">
         <v>44</v>
@@ -9318,10 +9304,10 @@
     </row>
     <row r="59" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B59" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
@@ -9446,8 +9432,8 @@
       <c r="AQ59">
         <v>1</v>
       </c>
-      <c r="AR59">
-        <v>0</v>
+      <c r="AR59" t="s">
+        <v>48</v>
       </c>
       <c r="AS59" t="s">
         <v>44</v>
@@ -9455,13 +9441,13 @@
     </row>
     <row r="60" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B60" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C60" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -9583,8 +9569,8 @@
       <c r="AQ60">
         <v>1</v>
       </c>
-      <c r="AR60">
-        <v>0</v>
+      <c r="AR60" t="s">
+        <v>48</v>
       </c>
       <c r="AS60" t="s">
         <v>44</v>
@@ -9592,14 +9578,14 @@
     </row>
     <row r="61" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B61" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" t="s">
         <v>166</v>
       </c>
-      <c r="C61" t="s">
-        <v>164</v>
-      </c>
       <c r="D61">
         <v>1</v>
       </c>
@@ -9720,8 +9706,8 @@
       <c r="AQ61">
         <v>1</v>
       </c>
-      <c r="AR61">
-        <v>0</v>
+      <c r="AR61" t="s">
+        <v>48</v>
       </c>
       <c r="AS61" t="s">
         <v>44</v>
@@ -9729,13 +9715,13 @@
     </row>
     <row r="62" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B62" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C62" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -9857,8 +9843,8 @@
       <c r="AQ62">
         <v>1</v>
       </c>
-      <c r="AR62">
-        <v>0</v>
+      <c r="AR62" t="s">
+        <v>48</v>
       </c>
       <c r="AS62" t="s">
         <v>44</v>
@@ -9866,13 +9852,13 @@
     </row>
     <row r="63" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B63" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C63" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -9994,8 +9980,8 @@
       <c r="AQ63">
         <v>1</v>
       </c>
-      <c r="AR63">
-        <v>0</v>
+      <c r="AR63" t="s">
+        <v>48</v>
       </c>
       <c r="AS63" t="s">
         <v>44</v>
@@ -10003,13 +9989,13 @@
     </row>
     <row r="64" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B64" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C64" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -10131,8 +10117,8 @@
       <c r="AQ64">
         <v>1</v>
       </c>
-      <c r="AR64">
-        <v>0</v>
+      <c r="AR64" t="s">
+        <v>48</v>
       </c>
       <c r="AS64" t="s">
         <v>44</v>
@@ -10140,13 +10126,13 @@
     </row>
     <row r="65" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B65" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C65" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -10268,8 +10254,8 @@
       <c r="AQ65">
         <v>1</v>
       </c>
-      <c r="AR65">
-        <v>0</v>
+      <c r="AR65" t="s">
+        <v>48</v>
       </c>
       <c r="AS65" t="s">
         <v>44</v>
@@ -10277,13 +10263,13 @@
     </row>
     <row r="66" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B66" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C66" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -10405,8 +10391,8 @@
       <c r="AQ66">
         <v>1</v>
       </c>
-      <c r="AR66">
-        <v>0</v>
+      <c r="AR66" t="s">
+        <v>48</v>
       </c>
       <c r="AS66" t="s">
         <v>44</v>
@@ -10414,13 +10400,13 @@
     </row>
     <row r="67" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B67" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C67" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -10542,8 +10528,8 @@
       <c r="AQ67">
         <v>1</v>
       </c>
-      <c r="AR67">
-        <v>0</v>
+      <c r="AR67" t="s">
+        <v>48</v>
       </c>
       <c r="AS67" t="s">
         <v>44</v>
@@ -10551,13 +10537,13 @@
     </row>
     <row r="68" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B68" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C68" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -10679,8 +10665,8 @@
       <c r="AQ68">
         <v>1</v>
       </c>
-      <c r="AR68">
-        <v>0</v>
+      <c r="AR68" t="s">
+        <v>48</v>
       </c>
       <c r="AS68" t="s">
         <v>44</v>
@@ -10688,13 +10674,13 @@
     </row>
     <row r="69" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B69" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C69" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -10816,8 +10802,8 @@
       <c r="AQ69">
         <v>1</v>
       </c>
-      <c r="AR69">
-        <v>0</v>
+      <c r="AR69" t="s">
+        <v>48</v>
       </c>
       <c r="AS69" t="s">
         <v>44</v>
@@ -10825,13 +10811,13 @@
     </row>
     <row r="70" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B70" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C70" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -10953,8 +10939,8 @@
       <c r="AQ70">
         <v>1</v>
       </c>
-      <c r="AR70">
-        <v>0</v>
+      <c r="AR70" t="s">
+        <v>48</v>
       </c>
       <c r="AS70" t="s">
         <v>44</v>
@@ -10962,13 +10948,13 @@
     </row>
     <row r="71" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B71" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C71" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -11090,8 +11076,8 @@
       <c r="AQ71">
         <v>1</v>
       </c>
-      <c r="AR71">
-        <v>0</v>
+      <c r="AR71" t="s">
+        <v>48</v>
       </c>
       <c r="AS71" t="s">
         <v>44</v>
@@ -11099,13 +11085,13 @@
     </row>
     <row r="72" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B72" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C72" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -11227,8 +11213,8 @@
       <c r="AQ72">
         <v>1</v>
       </c>
-      <c r="AR72">
-        <v>0</v>
+      <c r="AR72" t="s">
+        <v>48</v>
       </c>
       <c r="AS72" t="s">
         <v>44</v>
@@ -11236,13 +11222,13 @@
     </row>
     <row r="73" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B73" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C73" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -11364,8 +11350,8 @@
       <c r="AQ73">
         <v>1</v>
       </c>
-      <c r="AR73">
-        <v>0</v>
+      <c r="AR73" t="s">
+        <v>48</v>
       </c>
       <c r="AS73" t="s">
         <v>44</v>
@@ -11373,13 +11359,13 @@
     </row>
     <row r="74" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B74" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C74" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -11501,8 +11487,8 @@
       <c r="AQ74">
         <v>1</v>
       </c>
-      <c r="AR74">
-        <v>0</v>
+      <c r="AR74" t="s">
+        <v>48</v>
       </c>
       <c r="AS74" t="s">
         <v>44</v>
@@ -11510,13 +11496,13 @@
     </row>
     <row r="75" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B75" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C75" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -11638,8 +11624,8 @@
       <c r="AQ75">
         <v>1</v>
       </c>
-      <c r="AR75">
-        <v>0</v>
+      <c r="AR75" t="s">
+        <v>48</v>
       </c>
       <c r="AS75" t="s">
         <v>44</v>
@@ -11647,13 +11633,13 @@
     </row>
     <row r="76" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B76" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C76" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -11775,8 +11761,8 @@
       <c r="AQ76">
         <v>1</v>
       </c>
-      <c r="AR76">
-        <v>0</v>
+      <c r="AR76" t="s">
+        <v>48</v>
       </c>
       <c r="AS76" t="s">
         <v>44</v>
@@ -11784,13 +11770,13 @@
     </row>
     <row r="77" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B77" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C77" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D77">
         <v>2</v>
@@ -11912,8 +11898,8 @@
       <c r="AQ77">
         <v>1</v>
       </c>
-      <c r="AR77">
-        <v>0</v>
+      <c r="AR77" t="s">
+        <v>48</v>
       </c>
       <c r="AS77" t="s">
         <v>44</v>
@@ -11921,13 +11907,13 @@
     </row>
     <row r="78" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B78" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C78" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -12049,8 +12035,8 @@
       <c r="AQ78">
         <v>1</v>
       </c>
-      <c r="AR78">
-        <v>0</v>
+      <c r="AR78" t="s">
+        <v>48</v>
       </c>
       <c r="AS78" t="s">
         <v>44</v>
@@ -12058,10 +12044,10 @@
     </row>
     <row r="79" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B79" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
@@ -12186,8 +12172,8 @@
       <c r="AQ79">
         <v>1025</v>
       </c>
-      <c r="AR79">
-        <v>0</v>
+      <c r="AR79" t="s">
+        <v>48</v>
       </c>
       <c r="AS79" t="s">
         <v>44</v>
@@ -12195,10 +12181,10 @@
     </row>
     <row r="80" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B80" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
@@ -12323,8 +12309,8 @@
       <c r="AQ80">
         <v>1025</v>
       </c>
-      <c r="AR80">
-        <v>0</v>
+      <c r="AR80" t="s">
+        <v>48</v>
       </c>
       <c r="AS80" t="s">
         <v>44</v>
@@ -12332,10 +12318,10 @@
     </row>
     <row r="81" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B81" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
@@ -12460,8 +12446,8 @@
       <c r="AQ81">
         <v>1</v>
       </c>
-      <c r="AR81">
-        <v>0</v>
+      <c r="AR81" t="s">
+        <v>48</v>
       </c>
       <c r="AS81" t="s">
         <v>44</v>
@@ -12469,10 +12455,10 @@
     </row>
     <row r="82" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B82" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
@@ -12597,8 +12583,8 @@
       <c r="AQ82">
         <v>1</v>
       </c>
-      <c r="AR82">
-        <v>0</v>
+      <c r="AR82" t="s">
+        <v>48</v>
       </c>
       <c r="AS82" t="s">
         <v>44</v>
@@ -12606,10 +12592,10 @@
     </row>
     <row r="83" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B83" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
@@ -12734,8 +12720,8 @@
       <c r="AQ83">
         <v>1</v>
       </c>
-      <c r="AR83">
-        <v>0</v>
+      <c r="AR83" t="s">
+        <v>48</v>
       </c>
       <c r="AS83" t="s">
         <v>44</v>
@@ -12743,10 +12729,10 @@
     </row>
     <row r="84" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B84" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
@@ -12871,8 +12857,8 @@
       <c r="AQ84">
         <v>1</v>
       </c>
-      <c r="AR84">
-        <v>0</v>
+      <c r="AR84" t="s">
+        <v>48</v>
       </c>
       <c r="AS84" t="s">
         <v>44</v>
@@ -12880,10 +12866,10 @@
     </row>
     <row r="85" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B85" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
@@ -13008,8 +12994,8 @@
       <c r="AQ85">
         <v>1</v>
       </c>
-      <c r="AR85">
-        <v>0</v>
+      <c r="AR85" t="s">
+        <v>48</v>
       </c>
       <c r="AS85" t="s">
         <v>44</v>
@@ -13017,10 +13003,10 @@
     </row>
     <row r="86" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B86" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
@@ -13145,8 +13131,8 @@
       <c r="AQ86">
         <v>1</v>
       </c>
-      <c r="AR86">
-        <v>0</v>
+      <c r="AR86" t="s">
+        <v>48</v>
       </c>
       <c r="AS86" t="s">
         <v>44</v>
@@ -13154,10 +13140,10 @@
     </row>
     <row r="87" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B87" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
@@ -13282,8 +13268,8 @@
       <c r="AQ87">
         <v>1</v>
       </c>
-      <c r="AR87">
-        <v>0</v>
+      <c r="AR87" t="s">
+        <v>48</v>
       </c>
       <c r="AS87" t="s">
         <v>44</v>
@@ -13291,106 +13277,106 @@
     </row>
     <row r="88" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B88" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
       </c>
       <c r="D88">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>0</v>
+      </c>
+      <c r="Z88">
+        <v>2</v>
+      </c>
+      <c r="AA88">
         <v>9</v>
       </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88">
-        <v>9</v>
-      </c>
-      <c r="H88">
-        <v>9</v>
-      </c>
-      <c r="I88">
-        <v>6</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88">
-        <v>6</v>
-      </c>
-      <c r="L88">
-        <v>0</v>
-      </c>
-      <c r="M88">
-        <v>0</v>
-      </c>
-      <c r="N88">
-        <v>0</v>
-      </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-      <c r="P88">
-        <v>0</v>
-      </c>
-      <c r="Q88">
-        <v>0</v>
-      </c>
-      <c r="R88">
-        <v>3</v>
-      </c>
-      <c r="S88">
-        <v>0</v>
-      </c>
-      <c r="T88">
-        <v>0</v>
-      </c>
-      <c r="U88">
-        <v>3</v>
-      </c>
-      <c r="V88">
-        <v>0</v>
-      </c>
-      <c r="W88">
-        <v>0</v>
-      </c>
-      <c r="X88">
-        <v>3</v>
-      </c>
-      <c r="Y88">
-        <v>0</v>
-      </c>
-      <c r="Z88">
-        <v>0</v>
-      </c>
-      <c r="AA88">
-        <v>35</v>
-      </c>
       <c r="AB88">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AC88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD88">
         <v>0</v>
       </c>
       <c r="AE88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF88">
         <v>0</v>
       </c>
       <c r="AG88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI88">
         <v>1</v>
@@ -13399,10 +13385,10 @@
         <v>0</v>
       </c>
       <c r="AK88">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM88">
         <v>0</v>
@@ -13414,13 +13400,13 @@
         <v>0</v>
       </c>
       <c r="AP88">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AQ88">
         <v>1</v>
       </c>
-      <c r="AR88">
-        <v>0</v>
+      <c r="AR88" t="s">
+        <v>48</v>
       </c>
       <c r="AS88" t="s">
         <v>44</v>
@@ -13428,118 +13414,118 @@
     </row>
     <row r="89" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B89" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
       </c>
       <c r="D89">
+        <v>7</v>
+      </c>
+      <c r="E89">
+        <v>11</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>13</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>5</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>5</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>1</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>1</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>1</v>
+      </c>
+      <c r="Y89">
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <v>43</v>
+      </c>
+      <c r="AB89">
+        <v>2</v>
+      </c>
+      <c r="AC89">
+        <v>0</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
         <v>3</v>
       </c>
-      <c r="E89">
-        <v>2</v>
-      </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="G89">
-        <v>3</v>
-      </c>
-      <c r="H89">
-        <v>1</v>
-      </c>
-      <c r="I89">
-        <v>2</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <v>2</v>
-      </c>
-      <c r="L89">
-        <v>0</v>
-      </c>
-      <c r="M89">
-        <v>0</v>
-      </c>
-      <c r="N89">
-        <v>0</v>
-      </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-      <c r="P89">
-        <v>0</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89">
-        <v>0</v>
-      </c>
-      <c r="S89">
-        <v>0</v>
-      </c>
-      <c r="T89">
-        <v>0</v>
-      </c>
-      <c r="U89">
-        <v>0</v>
-      </c>
-      <c r="V89">
-        <v>0</v>
-      </c>
-      <c r="W89">
-        <v>0</v>
-      </c>
-      <c r="X89">
-        <v>0</v>
-      </c>
-      <c r="Y89">
-        <v>0</v>
-      </c>
-      <c r="Z89">
-        <v>2</v>
-      </c>
-      <c r="AA89">
-        <v>9</v>
-      </c>
-      <c r="AB89">
-        <v>2</v>
-      </c>
-      <c r="AC89">
-        <v>0</v>
-      </c>
-      <c r="AD89">
-        <v>0</v>
-      </c>
-      <c r="AE89">
-        <v>0</v>
-      </c>
       <c r="AF89">
         <v>0</v>
       </c>
       <c r="AG89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH89">
         <v>0</v>
       </c>
       <c r="AI89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ89">
         <v>0</v>
       </c>
       <c r="AK89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AL89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM89">
         <v>0</v>
@@ -13548,16 +13534,16 @@
         <v>0</v>
       </c>
       <c r="AO89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP89">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AQ89">
         <v>1</v>
       </c>
-      <c r="AR89">
-        <v>0</v>
+      <c r="AR89" t="s">
+        <v>48</v>
       </c>
       <c r="AS89" t="s">
         <v>44</v>
@@ -13565,40 +13551,40 @@
     </row>
     <row r="90" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B90" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
       </c>
       <c r="D90">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E90">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F90">
         <v>1</v>
       </c>
       <c r="G90">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I90">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J90">
         <v>0</v>
       </c>
       <c r="K90">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -13616,7 +13602,7 @@
         <v>0</v>
       </c>
       <c r="R90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S90">
         <v>0</v>
@@ -13625,7 +13611,7 @@
         <v>0</v>
       </c>
       <c r="U90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V90">
         <v>0</v>
@@ -13634,67 +13620,67 @@
         <v>0</v>
       </c>
       <c r="X90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y90">
         <v>0</v>
       </c>
       <c r="Z90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA90">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="AB90">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AC90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD90">
         <v>0</v>
       </c>
       <c r="AE90">
+        <v>4</v>
+      </c>
+      <c r="AF90">
+        <v>0</v>
+      </c>
+      <c r="AG90">
+        <v>0</v>
+      </c>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>12</v>
+      </c>
+      <c r="AJ90">
+        <v>0</v>
+      </c>
+      <c r="AK90">
+        <v>18</v>
+      </c>
+      <c r="AL90">
+        <v>1</v>
+      </c>
+      <c r="AM90">
+        <v>0</v>
+      </c>
+      <c r="AN90">
+        <v>0</v>
+      </c>
+      <c r="AO90">
         <v>3</v>
       </c>
-      <c r="AF90">
-        <v>0</v>
-      </c>
-      <c r="AG90">
-        <v>0</v>
-      </c>
-      <c r="AH90">
-        <v>0</v>
-      </c>
-      <c r="AI90">
-        <v>2</v>
-      </c>
-      <c r="AJ90">
-        <v>0</v>
-      </c>
-      <c r="AK90">
-        <v>5</v>
-      </c>
-      <c r="AL90">
-        <v>1</v>
-      </c>
-      <c r="AM90">
-        <v>0</v>
-      </c>
-      <c r="AN90">
-        <v>0</v>
-      </c>
-      <c r="AO90">
-        <v>2</v>
-      </c>
       <c r="AP90">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AQ90">
         <v>1</v>
       </c>
-      <c r="AR90">
-        <v>0</v>
+      <c r="AR90" t="s">
+        <v>48</v>
       </c>
       <c r="AS90" t="s">
         <v>44</v>
@@ -13702,40 +13688,40 @@
     </row>
     <row r="91" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B91" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
       </c>
       <c r="D91">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E91">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F91">
         <v>1</v>
       </c>
       <c r="G91">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H91">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M91">
         <v>0</v>
@@ -13753,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="R91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S91">
         <v>0</v>
@@ -13762,7 +13748,7 @@
         <v>0</v>
       </c>
       <c r="U91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V91">
         <v>0</v>
@@ -13771,25 +13757,25 @@
         <v>0</v>
       </c>
       <c r="X91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y91">
         <v>0</v>
       </c>
       <c r="Z91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA91">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="AB91">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE91">
         <v>4</v>
@@ -13804,13 +13790,13 @@
         <v>0</v>
       </c>
       <c r="AI91">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AJ91">
         <v>0</v>
       </c>
       <c r="AK91">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AL91">
         <v>1</v>
@@ -13822,16 +13808,16 @@
         <v>0</v>
       </c>
       <c r="AO91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP91">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AQ91">
         <v>1</v>
       </c>
-      <c r="AR91">
-        <v>0</v>
+      <c r="AR91" t="s">
+        <v>48</v>
       </c>
       <c r="AS91" t="s">
         <v>44</v>
@@ -13839,37 +13825,37 @@
     </row>
     <row r="92" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B92" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C92" t="s">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="D92">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E92">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
       <c r="G92">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I92">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
       <c r="K92">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -13890,7 +13876,7 @@
         <v>0</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S92">
         <v>0</v>
@@ -13899,7 +13885,7 @@
         <v>0</v>
       </c>
       <c r="U92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V92">
         <v>0</v>
@@ -13908,28 +13894,28 @@
         <v>0</v>
       </c>
       <c r="X92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y92">
         <v>0</v>
       </c>
       <c r="Z92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA92">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="AB92">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC92">
         <v>0</v>
       </c>
       <c r="AD92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF92">
         <v>0</v>
@@ -13941,16 +13927,16 @@
         <v>0</v>
       </c>
       <c r="AI92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ92">
         <v>0</v>
       </c>
       <c r="AK92">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AL92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM92">
         <v>0</v>
@@ -13959,16 +13945,16 @@
         <v>0</v>
       </c>
       <c r="AO92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP92">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="AQ92">
         <v>1</v>
       </c>
-      <c r="AR92">
-        <v>0</v>
+      <c r="AR92" t="s">
+        <v>48</v>
       </c>
       <c r="AS92" t="s">
         <v>44</v>
@@ -13976,37 +13962,37 @@
     </row>
     <row r="93" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B93" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C93" t="s">
-        <v>164</v>
+        <v>1</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E93">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F93">
         <v>1</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H93">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L93">
         <v>0</v>
@@ -14027,7 +14013,7 @@
         <v>0</v>
       </c>
       <c r="R93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S93">
         <v>0</v>
@@ -14036,7 +14022,7 @@
         <v>0</v>
       </c>
       <c r="U93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V93">
         <v>0</v>
@@ -14045,7 +14031,7 @@
         <v>0</v>
       </c>
       <c r="X93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y93">
         <v>0</v>
@@ -14054,40 +14040,40 @@
         <v>0</v>
       </c>
       <c r="AA93">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="AB93">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC93">
         <v>0</v>
       </c>
       <c r="AD93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH93">
         <v>0</v>
       </c>
       <c r="AI93">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AJ93">
         <v>0</v>
       </c>
       <c r="AK93">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AL93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM93">
         <v>0</v>
@@ -14096,16 +14082,16 @@
         <v>0</v>
       </c>
       <c r="AO93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP93">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="AQ93">
         <v>1</v>
       </c>
-      <c r="AR93">
-        <v>0</v>
+      <c r="AR93" t="s">
+        <v>48</v>
       </c>
       <c r="AS93" t="s">
         <v>44</v>
@@ -14113,10 +14099,10 @@
     </row>
     <row r="94" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B94" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
@@ -14241,8 +14227,8 @@
       <c r="AQ94">
         <v>1</v>
       </c>
-      <c r="AR94">
-        <v>0</v>
+      <c r="AR94" t="s">
+        <v>48</v>
       </c>
       <c r="AS94" t="s">
         <v>44</v>
@@ -14250,37 +14236,37 @@
     </row>
     <row r="95" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B95" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
       </c>
       <c r="D95">
+        <v>13</v>
+      </c>
+      <c r="E95">
         <v>12</v>
       </c>
-      <c r="E95">
-        <v>15</v>
-      </c>
       <c r="F95">
         <v>1</v>
       </c>
       <c r="G95">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
       <c r="K95">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L95">
         <v>0</v>
@@ -14301,7 +14287,7 @@
         <v>0</v>
       </c>
       <c r="R95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S95">
         <v>0</v>
@@ -14310,7 +14296,7 @@
         <v>0</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V95">
         <v>0</v>
@@ -14319,16 +14305,16 @@
         <v>0</v>
       </c>
       <c r="X95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y95">
         <v>0</v>
       </c>
       <c r="Z95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA95">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="AB95">
         <v>4</v>
@@ -14340,7 +14326,7 @@
         <v>1</v>
       </c>
       <c r="AE95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF95">
         <v>1</v>
@@ -14352,13 +14338,13 @@
         <v>0</v>
       </c>
       <c r="AI95">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AJ95">
         <v>0</v>
       </c>
       <c r="AK95">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AL95">
         <v>1</v>
@@ -14373,13 +14359,13 @@
         <v>2</v>
       </c>
       <c r="AP95">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AQ95">
         <v>1</v>
       </c>
-      <c r="AR95">
-        <v>0</v>
+      <c r="AR95" t="s">
+        <v>48</v>
       </c>
       <c r="AS95" t="s">
         <v>44</v>
@@ -14387,37 +14373,37 @@
     </row>
     <row r="96" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B96" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
       </c>
       <c r="D96">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E96">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F96">
         <v>1</v>
       </c>
       <c r="G96">
+        <v>73</v>
+      </c>
+      <c r="H96">
+        <v>197</v>
+      </c>
+      <c r="I96">
         <v>26</v>
       </c>
-      <c r="H96">
-        <v>1</v>
-      </c>
-      <c r="I96">
-        <v>6</v>
-      </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="L96">
         <v>0</v>
@@ -14438,7 +14424,7 @@
         <v>0</v>
       </c>
       <c r="R96">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S96">
         <v>0</v>
@@ -14447,7 +14433,7 @@
         <v>0</v>
       </c>
       <c r="U96">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="V96">
         <v>0</v>
@@ -14456,28 +14442,28 @@
         <v>0</v>
       </c>
       <c r="X96">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Y96">
         <v>0</v>
       </c>
       <c r="Z96">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="AA96">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="AB96">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="AC96">
         <v>0</v>
       </c>
       <c r="AD96">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AE96">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AF96">
         <v>1</v>
@@ -14489,13 +14475,13 @@
         <v>0</v>
       </c>
       <c r="AI96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ96">
         <v>0</v>
       </c>
       <c r="AK96">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="AL96">
         <v>1</v>
@@ -14507,16 +14493,16 @@
         <v>0</v>
       </c>
       <c r="AO96">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="AP96">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AQ96">
         <v>1</v>
       </c>
-      <c r="AR96">
-        <v>0</v>
+      <c r="AR96" t="s">
+        <v>48</v>
       </c>
       <c r="AS96" t="s">
         <v>44</v>
@@ -14524,37 +14510,37 @@
     </row>
     <row r="97" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B97" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
       </c>
       <c r="D97">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E97">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F97">
         <v>1</v>
       </c>
       <c r="G97">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="H97">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="L97">
         <v>0</v>
@@ -14575,7 +14561,7 @@
         <v>0</v>
       </c>
       <c r="R97">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="S97">
         <v>0</v>
@@ -14584,7 +14570,7 @@
         <v>0</v>
       </c>
       <c r="U97">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="V97">
         <v>0</v>
@@ -14593,67 +14579,67 @@
         <v>0</v>
       </c>
       <c r="X97">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="Y97">
         <v>0</v>
       </c>
       <c r="Z97">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AA97">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="AB97">
+        <v>2</v>
+      </c>
+      <c r="AC97">
+        <v>0</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>3</v>
+      </c>
+      <c r="AF97">
+        <v>0</v>
+      </c>
+      <c r="AG97">
+        <v>0</v>
+      </c>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>3</v>
+      </c>
+      <c r="AJ97">
+        <v>0</v>
+      </c>
+      <c r="AK97">
+        <v>6</v>
+      </c>
+      <c r="AL97">
+        <v>1</v>
+      </c>
+      <c r="AM97">
+        <v>0</v>
+      </c>
+      <c r="AN97">
+        <v>0</v>
+      </c>
+      <c r="AO97">
+        <v>2</v>
+      </c>
+      <c r="AP97">
         <v>37</v>
       </c>
-      <c r="AC97">
-        <v>0</v>
-      </c>
-      <c r="AD97">
-        <v>15</v>
-      </c>
-      <c r="AE97">
-        <v>8</v>
-      </c>
-      <c r="AF97">
-        <v>1</v>
-      </c>
-      <c r="AG97">
-        <v>2</v>
-      </c>
-      <c r="AH97">
-        <v>0</v>
-      </c>
-      <c r="AI97">
-        <v>5</v>
-      </c>
-      <c r="AJ97">
-        <v>0</v>
-      </c>
-      <c r="AK97">
-        <v>36</v>
-      </c>
-      <c r="AL97">
-        <v>1</v>
-      </c>
-      <c r="AM97">
-        <v>0</v>
-      </c>
-      <c r="AN97">
-        <v>0</v>
-      </c>
-      <c r="AO97">
-        <v>20</v>
-      </c>
-      <c r="AP97">
-        <v>82</v>
-      </c>
       <c r="AQ97">
         <v>1</v>
       </c>
-      <c r="AR97">
-        <v>0</v>
+      <c r="AR97" t="s">
+        <v>48</v>
       </c>
       <c r="AS97" t="s">
         <v>44</v>
@@ -14661,10 +14647,10 @@
     </row>
     <row r="98" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B98" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
@@ -14789,8 +14775,8 @@
       <c r="AQ98">
         <v>1</v>
       </c>
-      <c r="AR98">
-        <v>0</v>
+      <c r="AR98" t="s">
+        <v>48</v>
       </c>
       <c r="AS98" t="s">
         <v>44</v>
@@ -14798,10 +14784,10 @@
     </row>
     <row r="99" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B99" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
@@ -14810,25 +14796,25 @@
         <v>8</v>
       </c>
       <c r="E99">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99">
         <v>1</v>
       </c>
       <c r="G99">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L99">
         <v>0</v>
@@ -14876,10 +14862,10 @@
         <v>0</v>
       </c>
       <c r="AA99">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AB99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC99">
         <v>0</v>
@@ -14921,13 +14907,13 @@
         <v>2</v>
       </c>
       <c r="AP99">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AQ99">
         <v>1</v>
       </c>
-      <c r="AR99">
-        <v>0</v>
+      <c r="AR99" t="s">
+        <v>48</v>
       </c>
       <c r="AS99" t="s">
         <v>44</v>
@@ -14935,37 +14921,37 @@
     </row>
     <row r="100" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B100" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
       </c>
       <c r="D100">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E100">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F100">
         <v>1</v>
       </c>
       <c r="G100">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
       <c r="K100">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L100">
         <v>0</v>
@@ -14986,7 +14972,7 @@
         <v>0</v>
       </c>
       <c r="R100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S100">
         <v>0</v>
@@ -14995,7 +14981,7 @@
         <v>0</v>
       </c>
       <c r="U100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V100">
         <v>0</v>
@@ -15004,7 +14990,7 @@
         <v>0</v>
       </c>
       <c r="X100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y100">
         <v>0</v>
@@ -15013,10 +14999,10 @@
         <v>0</v>
       </c>
       <c r="AA100">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="AB100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC100">
         <v>0</v>
@@ -15043,7 +15029,7 @@
         <v>0</v>
       </c>
       <c r="AK100">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL100">
         <v>1</v>
@@ -15058,13 +15044,13 @@
         <v>2</v>
       </c>
       <c r="AP100">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AQ100">
         <v>1</v>
       </c>
-      <c r="AR100">
-        <v>0</v>
+      <c r="AR100" t="s">
+        <v>48</v>
       </c>
       <c r="AS100" t="s">
         <v>44</v>
@@ -15072,37 +15058,37 @@
     </row>
     <row r="101" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B101" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
       </c>
       <c r="D101">
+        <v>16</v>
+      </c>
+      <c r="E101">
+        <v>16</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>36</v>
+      </c>
+      <c r="H101">
+        <v>21</v>
+      </c>
+      <c r="I101">
         <v>10</v>
       </c>
-      <c r="E101">
-        <v>13</v>
-      </c>
-      <c r="F101">
-        <v>1</v>
-      </c>
-      <c r="G101">
-        <v>33</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101">
-        <v>7</v>
-      </c>
       <c r="J101">
         <v>0</v>
       </c>
       <c r="K101">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L101">
         <v>0</v>
@@ -15123,7 +15109,7 @@
         <v>0</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S101">
         <v>0</v>
@@ -15132,7 +15118,7 @@
         <v>0</v>
       </c>
       <c r="U101">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V101">
         <v>0</v>
@@ -15141,34 +15127,34 @@
         <v>0</v>
       </c>
       <c r="X101">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y101">
         <v>0</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA101">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB101">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AC101">
         <v>0</v>
       </c>
       <c r="AD101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH101">
         <v>0</v>
@@ -15180,7 +15166,7 @@
         <v>0</v>
       </c>
       <c r="AK101">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AL101">
         <v>1</v>
@@ -15192,16 +15178,16 @@
         <v>0</v>
       </c>
       <c r="AO101">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP101">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AQ101">
         <v>1</v>
       </c>
-      <c r="AR101">
-        <v>0</v>
+      <c r="AR101" t="s">
+        <v>48</v>
       </c>
       <c r="AS101" t="s">
         <v>44</v>
@@ -15209,37 +15195,37 @@
     </row>
     <row r="102" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B102" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
       </c>
       <c r="D102">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E102">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F102">
         <v>1</v>
       </c>
       <c r="G102">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H102">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="K102">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L102">
         <v>0</v>
@@ -15260,7 +15246,7 @@
         <v>0</v>
       </c>
       <c r="R102">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S102">
         <v>0</v>
@@ -15269,7 +15255,7 @@
         <v>0</v>
       </c>
       <c r="U102">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V102">
         <v>0</v>
@@ -15278,34 +15264,34 @@
         <v>0</v>
       </c>
       <c r="X102">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y102">
         <v>0</v>
       </c>
       <c r="Z102">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA102">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="AB102">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AC102">
         <v>0</v>
       </c>
       <c r="AD102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH102">
         <v>0</v>
@@ -15317,7 +15303,7 @@
         <v>0</v>
       </c>
       <c r="AK102">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AL102">
         <v>1</v>
@@ -15329,16 +15315,16 @@
         <v>0</v>
       </c>
       <c r="AO102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP102">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="AQ102">
         <v>1</v>
       </c>
-      <c r="AR102">
-        <v>0</v>
+      <c r="AR102" t="s">
+        <v>48</v>
       </c>
       <c r="AS102" t="s">
         <v>44</v>
@@ -15346,37 +15332,37 @@
     </row>
     <row r="103" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B103" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
       </c>
       <c r="D103">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E103">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F103">
         <v>1</v>
       </c>
       <c r="G103">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J103">
         <v>0</v>
       </c>
       <c r="K103">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L103">
         <v>0</v>
@@ -15424,58 +15410,58 @@
         <v>0</v>
       </c>
       <c r="AA103">
+        <v>12</v>
+      </c>
+      <c r="AB103">
+        <v>3</v>
+      </c>
+      <c r="AC103">
+        <v>0</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
+      </c>
+      <c r="AF103">
+        <v>0</v>
+      </c>
+      <c r="AG103">
+        <v>0</v>
+      </c>
+      <c r="AH103">
+        <v>0</v>
+      </c>
+      <c r="AI103">
+        <v>0</v>
+      </c>
+      <c r="AJ103">
+        <v>0</v>
+      </c>
+      <c r="AK103">
+        <v>1</v>
+      </c>
+      <c r="AL103">
+        <v>0</v>
+      </c>
+      <c r="AM103">
+        <v>0</v>
+      </c>
+      <c r="AN103">
+        <v>0</v>
+      </c>
+      <c r="AO103">
+        <v>0</v>
+      </c>
+      <c r="AP103">
+        <v>12</v>
+      </c>
+      <c r="AQ103">
+        <v>1</v>
+      </c>
+      <c r="AR103" t="s">
         <v>48</v>
-      </c>
-      <c r="AB103">
-        <v>2</v>
-      </c>
-      <c r="AC103">
-        <v>0</v>
-      </c>
-      <c r="AD103">
-        <v>0</v>
-      </c>
-      <c r="AE103">
-        <v>3</v>
-      </c>
-      <c r="AF103">
-        <v>0</v>
-      </c>
-      <c r="AG103">
-        <v>0</v>
-      </c>
-      <c r="AH103">
-        <v>0</v>
-      </c>
-      <c r="AI103">
-        <v>3</v>
-      </c>
-      <c r="AJ103">
-        <v>0</v>
-      </c>
-      <c r="AK103">
-        <v>6</v>
-      </c>
-      <c r="AL103">
-        <v>1</v>
-      </c>
-      <c r="AM103">
-        <v>0</v>
-      </c>
-      <c r="AN103">
-        <v>0</v>
-      </c>
-      <c r="AO103">
-        <v>2</v>
-      </c>
-      <c r="AP103">
-        <v>36</v>
-      </c>
-      <c r="AQ103">
-        <v>1</v>
-      </c>
-      <c r="AR103">
-        <v>0</v>
       </c>
       <c r="AS103" t="s">
         <v>44</v>
@@ -15483,31 +15469,31 @@
     </row>
     <row r="104" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B104" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
       </c>
       <c r="D104">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E104">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G104">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I104">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -15519,7 +15505,7 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -15561,7 +15547,7 @@
         <v>0</v>
       </c>
       <c r="AA104">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AB104">
         <v>3</v>
@@ -15579,19 +15565,19 @@
         <v>0</v>
       </c>
       <c r="AG104">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH104">
         <v>0</v>
       </c>
       <c r="AI104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ104">
         <v>0</v>
       </c>
       <c r="AK104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL104">
         <v>0</v>
@@ -15606,13 +15592,13 @@
         <v>0</v>
       </c>
       <c r="AP104">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AQ104">
         <v>1</v>
       </c>
-      <c r="AR104">
-        <v>0</v>
+      <c r="AR104" t="s">
+        <v>48</v>
       </c>
       <c r="AS104" t="s">
         <v>44</v>
@@ -15620,94 +15606,94 @@
     </row>
     <row r="105" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B105" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
       </c>
       <c r="D105">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E105">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G105">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>1</v>
+      </c>
+      <c r="S105">
+        <v>0</v>
+      </c>
+      <c r="T105">
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <v>1</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
+        <v>0</v>
+      </c>
+      <c r="X105">
+        <v>1</v>
+      </c>
+      <c r="Y105">
+        <v>0</v>
+      </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
+      <c r="AA105">
         <v>10</v>
       </c>
-      <c r="I105">
-        <v>5</v>
-      </c>
-      <c r="J105">
-        <v>0</v>
-      </c>
-      <c r="K105">
-        <v>3</v>
-      </c>
-      <c r="L105">
-        <v>0</v>
-      </c>
-      <c r="M105">
-        <v>2</v>
-      </c>
-      <c r="N105">
-        <v>0</v>
-      </c>
-      <c r="O105">
-        <v>0</v>
-      </c>
-      <c r="P105">
-        <v>0</v>
-      </c>
-      <c r="Q105">
-        <v>0</v>
-      </c>
-      <c r="R105">
-        <v>1</v>
-      </c>
-      <c r="S105">
-        <v>0</v>
-      </c>
-      <c r="T105">
-        <v>0</v>
-      </c>
-      <c r="U105">
-        <v>1</v>
-      </c>
-      <c r="V105">
-        <v>0</v>
-      </c>
-      <c r="W105">
-        <v>0</v>
-      </c>
-      <c r="X105">
-        <v>1</v>
-      </c>
-      <c r="Y105">
-        <v>0</v>
-      </c>
-      <c r="Z105">
-        <v>0</v>
-      </c>
-      <c r="AA105">
-        <v>22</v>
-      </c>
       <c r="AB105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC105">
         <v>0</v>
       </c>
       <c r="AD105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE105">
         <v>0</v>
@@ -15716,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="AG105">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AH105">
         <v>0</v>
@@ -15731,7 +15717,7 @@
         <v>2</v>
       </c>
       <c r="AL105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM105">
         <v>0</v>
@@ -15743,13 +15729,13 @@
         <v>0</v>
       </c>
       <c r="AP105">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="AQ105">
         <v>1</v>
       </c>
-      <c r="AR105">
-        <v>0</v>
+      <c r="AR105" t="s">
+        <v>48</v>
       </c>
       <c r="AS105" t="s">
         <v>44</v>
@@ -15757,37 +15743,37 @@
     </row>
     <row r="106" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B106" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
       </c>
       <c r="D106">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E106">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F106">
         <v>1</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J106">
         <v>0</v>
       </c>
       <c r="K106">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L106">
         <v>0</v>
@@ -15808,7 +15794,7 @@
         <v>0</v>
       </c>
       <c r="R106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S106">
         <v>0</v>
@@ -15817,7 +15803,7 @@
         <v>0</v>
       </c>
       <c r="U106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V106">
         <v>0</v>
@@ -15826,7 +15812,7 @@
         <v>0</v>
       </c>
       <c r="X106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y106">
         <v>0</v>
@@ -15835,37 +15821,37 @@
         <v>0</v>
       </c>
       <c r="AA106">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="AB106">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AC106">
         <v>0</v>
       </c>
       <c r="AD106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF106">
         <v>0</v>
       </c>
       <c r="AG106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH106">
         <v>0</v>
       </c>
       <c r="AI106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ106">
         <v>0</v>
       </c>
       <c r="AK106">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AL106">
         <v>1</v>
@@ -15877,16 +15863,16 @@
         <v>0</v>
       </c>
       <c r="AO106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP106">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="AQ106">
         <v>1</v>
       </c>
-      <c r="AR106">
-        <v>0</v>
+      <c r="AR106" t="s">
+        <v>48</v>
       </c>
       <c r="AS106" t="s">
         <v>44</v>
@@ -15894,37 +15880,37 @@
     </row>
     <row r="107" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B107" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
       </c>
       <c r="D107">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E107">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F107">
         <v>1</v>
       </c>
       <c r="G107">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="H107">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J107">
         <v>0</v>
       </c>
       <c r="K107">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L107">
         <v>0</v>
@@ -15945,7 +15931,7 @@
         <v>0</v>
       </c>
       <c r="R107">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S107">
         <v>0</v>
@@ -15954,7 +15940,7 @@
         <v>0</v>
       </c>
       <c r="U107">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V107">
         <v>0</v>
@@ -15963,7 +15949,7 @@
         <v>0</v>
       </c>
       <c r="X107">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y107">
         <v>0</v>
@@ -15972,10 +15958,10 @@
         <v>0</v>
       </c>
       <c r="AA107">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="AB107">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AC107">
         <v>0</v>
@@ -15984,10 +15970,10 @@
         <v>0</v>
       </c>
       <c r="AE107">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG107">
         <v>0</v>
@@ -15996,16 +15982,16 @@
         <v>0</v>
       </c>
       <c r="AI107">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ107">
         <v>0</v>
       </c>
       <c r="AK107">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AL107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM107">
         <v>0</v>
@@ -16014,16 +16000,16 @@
         <v>0</v>
       </c>
       <c r="AO107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP107">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="AQ107">
         <v>1</v>
       </c>
-      <c r="AR107">
-        <v>0</v>
+      <c r="AR107" t="s">
+        <v>48</v>
       </c>
       <c r="AS107" t="s">
         <v>44</v>
@@ -16031,25 +16017,25 @@
     </row>
     <row r="108" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B108" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
       </c>
       <c r="D108">
+        <v>4</v>
+      </c>
+      <c r="E108">
         <v>3</v>
       </c>
-      <c r="E108">
-        <v>1</v>
-      </c>
       <c r="F108">
         <v>1</v>
       </c>
       <c r="G108">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -16106,19 +16092,19 @@
         <v>0</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA108">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AB108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC108">
         <v>0</v>
       </c>
       <c r="AD108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE108">
         <v>0</v>
@@ -16133,16 +16119,16 @@
         <v>0</v>
       </c>
       <c r="AI108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ108">
         <v>0</v>
       </c>
       <c r="AK108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM108">
         <v>0</v>
@@ -16154,13 +16140,13 @@
         <v>0</v>
       </c>
       <c r="AP108">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AQ108">
         <v>1</v>
       </c>
-      <c r="AR108">
-        <v>0</v>
+      <c r="AR108" t="s">
+        <v>48</v>
       </c>
       <c r="AS108" t="s">
         <v>44</v>
@@ -16168,118 +16154,118 @@
     </row>
     <row r="109" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B109" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
       </c>
       <c r="D109">
+        <v>10</v>
+      </c>
+      <c r="E109">
+        <v>13</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>25</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>6</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>6</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>2</v>
+      </c>
+      <c r="S109">
+        <v>0</v>
+      </c>
+      <c r="T109">
+        <v>0</v>
+      </c>
+      <c r="U109">
+        <v>2</v>
+      </c>
+      <c r="V109">
+        <v>0</v>
+      </c>
+      <c r="W109">
+        <v>0</v>
+      </c>
+      <c r="X109">
+        <v>2</v>
+      </c>
+      <c r="Y109">
+        <v>0</v>
+      </c>
+      <c r="Z109">
+        <v>1</v>
+      </c>
+      <c r="AA109">
+        <v>49</v>
+      </c>
+      <c r="AB109">
+        <v>3</v>
+      </c>
+      <c r="AC109">
+        <v>0</v>
+      </c>
+      <c r="AD109">
+        <v>0</v>
+      </c>
+      <c r="AE109">
+        <v>3</v>
+      </c>
+      <c r="AF109">
+        <v>0</v>
+      </c>
+      <c r="AG109">
+        <v>1</v>
+      </c>
+      <c r="AH109">
+        <v>0</v>
+      </c>
+      <c r="AI109">
         <v>4</v>
       </c>
-      <c r="E109">
-        <v>3</v>
-      </c>
-      <c r="F109">
-        <v>1</v>
-      </c>
-      <c r="G109">
-        <v>7</v>
-      </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109">
-        <v>1</v>
-      </c>
-      <c r="J109">
-        <v>0</v>
-      </c>
-      <c r="K109">
-        <v>1</v>
-      </c>
-      <c r="L109">
-        <v>0</v>
-      </c>
-      <c r="M109">
-        <v>0</v>
-      </c>
-      <c r="N109">
-        <v>0</v>
-      </c>
-      <c r="O109">
-        <v>0</v>
-      </c>
-      <c r="P109">
-        <v>0</v>
-      </c>
-      <c r="Q109">
-        <v>0</v>
-      </c>
-      <c r="R109">
-        <v>0</v>
-      </c>
-      <c r="S109">
-        <v>0</v>
-      </c>
-      <c r="T109">
-        <v>0</v>
-      </c>
-      <c r="U109">
-        <v>0</v>
-      </c>
-      <c r="V109">
-        <v>0</v>
-      </c>
-      <c r="W109">
-        <v>0</v>
-      </c>
-      <c r="X109">
-        <v>0</v>
-      </c>
-      <c r="Y109">
-        <v>0</v>
-      </c>
-      <c r="Z109">
-        <v>2</v>
-      </c>
-      <c r="AA109">
-        <v>9</v>
-      </c>
-      <c r="AB109">
-        <v>2</v>
-      </c>
-      <c r="AC109">
-        <v>0</v>
-      </c>
-      <c r="AD109">
-        <v>1</v>
-      </c>
-      <c r="AE109">
-        <v>0</v>
-      </c>
-      <c r="AF109">
-        <v>1</v>
-      </c>
-      <c r="AG109">
-        <v>0</v>
-      </c>
-      <c r="AH109">
-        <v>0</v>
-      </c>
-      <c r="AI109">
-        <v>1</v>
-      </c>
       <c r="AJ109">
         <v>0</v>
       </c>
       <c r="AK109">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AL109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM109">
         <v>0</v>
@@ -16288,16 +16274,16 @@
         <v>0</v>
       </c>
       <c r="AO109">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AP109">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="AQ109">
         <v>1</v>
       </c>
-      <c r="AR109">
-        <v>0</v>
+      <c r="AR109" t="s">
+        <v>48</v>
       </c>
       <c r="AS109" t="s">
         <v>44</v>
@@ -16305,37 +16291,37 @@
     </row>
     <row r="110" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B110" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
       </c>
       <c r="D110">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E110">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F110">
         <v>1</v>
       </c>
       <c r="G110">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J110">
         <v>0</v>
       </c>
       <c r="K110">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L110">
         <v>0</v>
@@ -16356,7 +16342,7 @@
         <v>0</v>
       </c>
       <c r="R110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S110">
         <v>0</v>
@@ -16365,7 +16351,7 @@
         <v>0</v>
       </c>
       <c r="U110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V110">
         <v>0</v>
@@ -16374,19 +16360,19 @@
         <v>0</v>
       </c>
       <c r="X110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y110">
         <v>0</v>
       </c>
       <c r="Z110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA110">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AB110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC110">
         <v>0</v>
@@ -16401,7 +16387,7 @@
         <v>0</v>
       </c>
       <c r="AG110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH110">
         <v>0</v>
@@ -16413,10 +16399,10 @@
         <v>0</v>
       </c>
       <c r="AK110">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AL110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM110">
         <v>0</v>
@@ -16425,16 +16411,16 @@
         <v>0</v>
       </c>
       <c r="AO110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP110">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AQ110">
         <v>1</v>
       </c>
-      <c r="AR110">
-        <v>0</v>
+      <c r="AR110" t="s">
+        <v>48</v>
       </c>
       <c r="AS110" t="s">
         <v>44</v>
@@ -16442,25 +16428,25 @@
     </row>
     <row r="111" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B111" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
       </c>
       <c r="D111">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E111">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F111">
         <v>1</v>
       </c>
       <c r="G111">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -16493,7 +16479,7 @@
         <v>0</v>
       </c>
       <c r="R111">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="S111">
         <v>0</v>
@@ -16502,7 +16488,7 @@
         <v>0</v>
       </c>
       <c r="U111">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="V111">
         <v>0</v>
@@ -16511,46 +16497,46 @@
         <v>0</v>
       </c>
       <c r="X111">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y111">
         <v>0</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA111">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="AB111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC111">
         <v>0</v>
       </c>
       <c r="AD111">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE111">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG111">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI111">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="AJ111">
         <v>0</v>
       </c>
       <c r="AK111">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="AL111">
         <v>1</v>
@@ -16562,16 +16548,16 @@
         <v>0</v>
       </c>
       <c r="AO111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP111">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="AQ111">
         <v>1</v>
       </c>
-      <c r="AR111">
-        <v>0</v>
+      <c r="AR111" t="s">
+        <v>48</v>
       </c>
       <c r="AS111" t="s">
         <v>44</v>
@@ -16579,118 +16565,118 @@
     </row>
     <row r="112" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B112" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
       </c>
       <c r="D112">
+        <v>8</v>
+      </c>
+      <c r="E112">
+        <v>15</v>
+      </c>
+      <c r="F112">
+        <v>4</v>
+      </c>
+      <c r="G112">
+        <v>16</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
         <v>5</v>
       </c>
-      <c r="E112">
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>5</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>1</v>
+      </c>
+      <c r="S112">
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <v>0</v>
+      </c>
+      <c r="U112">
+        <v>1</v>
+      </c>
+      <c r="V112">
+        <v>0</v>
+      </c>
+      <c r="W112">
+        <v>0</v>
+      </c>
+      <c r="X112">
+        <v>1</v>
+      </c>
+      <c r="Y112">
+        <v>0</v>
+      </c>
+      <c r="Z112">
+        <v>2</v>
+      </c>
+      <c r="AA112">
+        <v>77</v>
+      </c>
+      <c r="AB112">
+        <v>15</v>
+      </c>
+      <c r="AC112">
+        <v>0</v>
+      </c>
+      <c r="AD112">
+        <v>0</v>
+      </c>
+      <c r="AE112">
+        <v>4</v>
+      </c>
+      <c r="AF112">
+        <v>0</v>
+      </c>
+      <c r="AG112">
+        <v>40</v>
+      </c>
+      <c r="AH112">
+        <v>0</v>
+      </c>
+      <c r="AI112">
         <v>3</v>
       </c>
-      <c r="F112">
-        <v>1</v>
-      </c>
-      <c r="G112">
-        <v>3</v>
-      </c>
-      <c r="H112">
-        <v>1</v>
-      </c>
-      <c r="I112">
-        <v>3</v>
-      </c>
-      <c r="J112">
-        <v>0</v>
-      </c>
-      <c r="K112">
-        <v>3</v>
-      </c>
-      <c r="L112">
-        <v>0</v>
-      </c>
-      <c r="M112">
-        <v>0</v>
-      </c>
-      <c r="N112">
-        <v>0</v>
-      </c>
-      <c r="O112">
-        <v>0</v>
-      </c>
-      <c r="P112">
-        <v>0</v>
-      </c>
-      <c r="Q112">
-        <v>0</v>
-      </c>
-      <c r="R112">
-        <v>2</v>
-      </c>
-      <c r="S112">
-        <v>0</v>
-      </c>
-      <c r="T112">
-        <v>0</v>
-      </c>
-      <c r="U112">
-        <v>2</v>
-      </c>
-      <c r="V112">
-        <v>0</v>
-      </c>
-      <c r="W112">
-        <v>0</v>
-      </c>
-      <c r="X112">
-        <v>2</v>
-      </c>
-      <c r="Y112">
-        <v>0</v>
-      </c>
-      <c r="Z112">
-        <v>0</v>
-      </c>
-      <c r="AA112">
-        <v>13</v>
-      </c>
-      <c r="AB112">
-        <v>3</v>
-      </c>
-      <c r="AC112">
-        <v>0</v>
-      </c>
-      <c r="AD112">
-        <v>0</v>
-      </c>
-      <c r="AE112">
-        <v>0</v>
-      </c>
-      <c r="AF112">
-        <v>0</v>
-      </c>
-      <c r="AG112">
-        <v>0</v>
-      </c>
-      <c r="AH112">
-        <v>0</v>
-      </c>
-      <c r="AI112">
-        <v>0</v>
-      </c>
       <c r="AJ112">
         <v>0</v>
       </c>
       <c r="AK112">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM112">
         <v>0</v>
@@ -16702,13 +16688,13 @@
         <v>0</v>
       </c>
       <c r="AP112">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="AQ112">
         <v>1</v>
       </c>
-      <c r="AR112">
-        <v>0</v>
+      <c r="AR112" t="s">
+        <v>48</v>
       </c>
       <c r="AS112" t="s">
         <v>44</v>
@@ -16716,37 +16702,37 @@
     </row>
     <row r="113" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B113" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
       </c>
       <c r="D113">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E113">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G113">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I113">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J113">
         <v>0</v>
       </c>
       <c r="K113">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L113">
         <v>0</v>
@@ -16767,7 +16753,7 @@
         <v>0</v>
       </c>
       <c r="R113">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="S113">
         <v>0</v>
@@ -16776,7 +16762,7 @@
         <v>0</v>
       </c>
       <c r="U113">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="V113">
         <v>0</v>
@@ -16791,40 +16777,40 @@
         <v>0</v>
       </c>
       <c r="Z113">
+        <v>1</v>
+      </c>
+      <c r="AA113">
+        <v>110</v>
+      </c>
+      <c r="AB113">
+        <v>21</v>
+      </c>
+      <c r="AC113">
+        <v>0</v>
+      </c>
+      <c r="AD113">
+        <v>0</v>
+      </c>
+      <c r="AE113">
+        <v>4</v>
+      </c>
+      <c r="AF113">
+        <v>2</v>
+      </c>
+      <c r="AG113">
+        <v>49</v>
+      </c>
+      <c r="AH113">
+        <v>0</v>
+      </c>
+      <c r="AI113">
         <v>5</v>
       </c>
-      <c r="AA113">
-        <v>109</v>
-      </c>
-      <c r="AB113">
-        <v>0</v>
-      </c>
-      <c r="AC113">
-        <v>0</v>
-      </c>
-      <c r="AD113">
-        <v>5</v>
-      </c>
-      <c r="AE113">
-        <v>0</v>
-      </c>
-      <c r="AF113">
-        <v>1</v>
-      </c>
-      <c r="AG113">
-        <v>11</v>
-      </c>
-      <c r="AH113">
-        <v>1</v>
-      </c>
-      <c r="AI113">
-        <v>18</v>
-      </c>
       <c r="AJ113">
         <v>0</v>
       </c>
       <c r="AK113">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AL113">
         <v>1</v>
@@ -16836,16 +16822,16 @@
         <v>0</v>
       </c>
       <c r="AO113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP113">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="AQ113">
         <v>1</v>
       </c>
-      <c r="AR113">
-        <v>0</v>
+      <c r="AR113" t="s">
+        <v>48</v>
       </c>
       <c r="AS113" t="s">
         <v>44</v>
@@ -16853,22 +16839,22 @@
     </row>
     <row r="114" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B114" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C114" t="s">
         <v>1</v>
       </c>
       <c r="D114">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E114">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F114">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G114">
         <v>16</v>
@@ -16931,10 +16917,10 @@
         <v>2</v>
       </c>
       <c r="AA114">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AB114">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC114">
         <v>0</v>
@@ -16949,7 +16935,7 @@
         <v>0</v>
       </c>
       <c r="AG114">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AH114">
         <v>0</v>
@@ -16976,13 +16962,13 @@
         <v>0</v>
       </c>
       <c r="AP114">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="AQ114">
         <v>1</v>
       </c>
-      <c r="AR114">
-        <v>0</v>
+      <c r="AR114" t="s">
+        <v>48</v>
       </c>
       <c r="AS114" t="s">
         <v>44</v>
@@ -16990,28 +16976,28 @@
     </row>
     <row r="115" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B115" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C115" t="s">
         <v>1</v>
       </c>
       <c r="D115">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E115">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F115">
         <v>3</v>
       </c>
       <c r="G115">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115">
         <v>8</v>
@@ -17041,7 +17027,7 @@
         <v>0</v>
       </c>
       <c r="R115">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S115">
         <v>0</v>
@@ -17050,7 +17036,7 @@
         <v>0</v>
       </c>
       <c r="U115">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V115">
         <v>0</v>
@@ -17059,7 +17045,7 @@
         <v>0</v>
       </c>
       <c r="X115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y115">
         <v>0</v>
@@ -17068,37 +17054,37 @@
         <v>1</v>
       </c>
       <c r="AA115">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="AB115">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AC115">
         <v>0</v>
       </c>
       <c r="AD115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE115">
         <v>4</v>
       </c>
       <c r="AF115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG115">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AH115">
         <v>0</v>
       </c>
       <c r="AI115">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ115">
         <v>0</v>
       </c>
       <c r="AK115">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL115">
         <v>1</v>
@@ -17113,13 +17099,13 @@
         <v>0</v>
       </c>
       <c r="AP115">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AQ115">
         <v>1</v>
       </c>
-      <c r="AR115">
-        <v>0</v>
+      <c r="AR115" t="s">
+        <v>48</v>
       </c>
       <c r="AS115" t="s">
         <v>44</v>
@@ -17127,37 +17113,37 @@
     </row>
     <row r="116" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B116" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C116" t="s">
         <v>1</v>
       </c>
       <c r="D116">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E116">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F116">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G116">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H116">
         <v>0</v>
       </c>
       <c r="I116">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J116">
         <v>0</v>
       </c>
       <c r="K116">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L116">
         <v>0</v>
@@ -17178,7 +17164,7 @@
         <v>0</v>
       </c>
       <c r="R116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S116">
         <v>0</v>
@@ -17187,7 +17173,7 @@
         <v>0</v>
       </c>
       <c r="U116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V116">
         <v>0</v>
@@ -17202,13 +17188,13 @@
         <v>0</v>
       </c>
       <c r="Z116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA116">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AB116">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC116">
         <v>0</v>
@@ -17235,7 +17221,7 @@
         <v>0</v>
       </c>
       <c r="AK116">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL116">
         <v>1</v>
@@ -17250,13 +17236,13 @@
         <v>0</v>
       </c>
       <c r="AP116">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ116">
         <v>1</v>
       </c>
-      <c r="AR116">
-        <v>0</v>
+      <c r="AR116" t="s">
+        <v>48</v>
       </c>
       <c r="AS116" t="s">
         <v>44</v>
@@ -17264,37 +17250,37 @@
     </row>
     <row r="117" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B117" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C117" t="s">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="D117">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E117">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G117">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I117">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J117">
         <v>0</v>
       </c>
       <c r="K117">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L117">
         <v>0</v>
@@ -17315,7 +17301,7 @@
         <v>0</v>
       </c>
       <c r="R117">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S117">
         <v>0</v>
@@ -17324,7 +17310,7 @@
         <v>0</v>
       </c>
       <c r="U117">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V117">
         <v>0</v>
@@ -17333,67 +17319,67 @@
         <v>0</v>
       </c>
       <c r="X117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y117">
         <v>0</v>
       </c>
       <c r="Z117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA117">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="AB117">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AC117">
         <v>0</v>
       </c>
       <c r="AD117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE117">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF117">
         <v>0</v>
       </c>
       <c r="AG117">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AH117">
         <v>0</v>
       </c>
       <c r="AI117">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AJ117">
         <v>0</v>
       </c>
       <c r="AK117">
+        <v>0</v>
+      </c>
+      <c r="AL117">
+        <v>0</v>
+      </c>
+      <c r="AM117">
+        <v>0</v>
+      </c>
+      <c r="AN117">
+        <v>0</v>
+      </c>
+      <c r="AO117">
+        <v>0</v>
+      </c>
+      <c r="AP117">
         <v>9</v>
       </c>
-      <c r="AL117">
-        <v>1</v>
-      </c>
-      <c r="AM117">
-        <v>0</v>
-      </c>
-      <c r="AN117">
-        <v>0</v>
-      </c>
-      <c r="AO117">
-        <v>0</v>
-      </c>
-      <c r="AP117">
-        <v>73</v>
-      </c>
       <c r="AQ117">
         <v>1</v>
       </c>
-      <c r="AR117">
-        <v>0</v>
+      <c r="AR117" t="s">
+        <v>48</v>
       </c>
       <c r="AS117" t="s">
         <v>44</v>
@@ -17401,10 +17387,10 @@
     </row>
     <row r="118" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B118" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C118" t="s">
         <v>1</v>
@@ -17413,13 +17399,13 @@
         <v>11</v>
       </c>
       <c r="E118">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F118">
         <v>4</v>
       </c>
       <c r="G118">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -17479,10 +17465,10 @@
         <v>1</v>
       </c>
       <c r="AA118">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AB118">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC118">
         <v>0</v>
@@ -17497,7 +17483,7 @@
         <v>0</v>
       </c>
       <c r="AG118">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AH118">
         <v>0</v>
@@ -17524,13 +17510,13 @@
         <v>0</v>
       </c>
       <c r="AP118">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="AQ118">
         <v>1</v>
       </c>
-      <c r="AR118">
-        <v>0</v>
+      <c r="AR118" t="s">
+        <v>48</v>
       </c>
       <c r="AS118" t="s">
         <v>44</v>
@@ -17538,118 +17524,118 @@
     </row>
     <row r="119" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B119" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C119" t="s">
-        <v>164</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E119">
+        <v>17</v>
+      </c>
+      <c r="F119">
         <v>4</v>
       </c>
-      <c r="F119">
-        <v>1</v>
-      </c>
       <c r="G119">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
         <v>6</v>
       </c>
-      <c r="I119">
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>6</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119">
+        <v>2</v>
+      </c>
+      <c r="S119">
+        <v>0</v>
+      </c>
+      <c r="T119">
+        <v>0</v>
+      </c>
+      <c r="U119">
+        <v>2</v>
+      </c>
+      <c r="V119">
+        <v>0</v>
+      </c>
+      <c r="W119">
+        <v>0</v>
+      </c>
+      <c r="X119">
+        <v>1</v>
+      </c>
+      <c r="Y119">
+        <v>0</v>
+      </c>
+      <c r="Z119">
+        <v>1</v>
+      </c>
+      <c r="AA119">
+        <v>83</v>
+      </c>
+      <c r="AB119">
+        <v>14</v>
+      </c>
+      <c r="AC119">
+        <v>0</v>
+      </c>
+      <c r="AD119">
+        <v>0</v>
+      </c>
+      <c r="AE119">
         <v>4</v>
       </c>
-      <c r="J119">
-        <v>0</v>
-      </c>
-      <c r="K119">
-        <v>4</v>
-      </c>
-      <c r="L119">
-        <v>0</v>
-      </c>
-      <c r="M119">
-        <v>0</v>
-      </c>
-      <c r="N119">
-        <v>0</v>
-      </c>
-      <c r="O119">
-        <v>0</v>
-      </c>
-      <c r="P119">
-        <v>0</v>
-      </c>
-      <c r="Q119">
-        <v>0</v>
-      </c>
-      <c r="R119">
-        <v>0</v>
-      </c>
-      <c r="S119">
-        <v>0</v>
-      </c>
-      <c r="T119">
-        <v>0</v>
-      </c>
-      <c r="U119">
-        <v>0</v>
-      </c>
-      <c r="V119">
-        <v>0</v>
-      </c>
-      <c r="W119">
-        <v>0</v>
-      </c>
-      <c r="X119">
-        <v>0</v>
-      </c>
-      <c r="Y119">
-        <v>0</v>
-      </c>
-      <c r="Z119">
-        <v>0</v>
-      </c>
-      <c r="AA119">
-        <v>6</v>
-      </c>
-      <c r="AB119">
-        <v>0</v>
-      </c>
-      <c r="AC119">
-        <v>0</v>
-      </c>
-      <c r="AD119">
-        <v>0</v>
-      </c>
-      <c r="AE119">
-        <v>0</v>
-      </c>
       <c r="AF119">
         <v>0</v>
       </c>
       <c r="AG119">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AH119">
         <v>0</v>
       </c>
       <c r="AI119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ119">
         <v>0</v>
       </c>
       <c r="AK119">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM119">
         <v>0</v>
@@ -17661,13 +17647,13 @@
         <v>0</v>
       </c>
       <c r="AP119">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="AQ119">
         <v>1</v>
       </c>
-      <c r="AR119">
-        <v>0</v>
+      <c r="AR119" t="s">
+        <v>48</v>
       </c>
       <c r="AS119" t="s">
         <v>44</v>
@@ -17675,88 +17661,88 @@
     </row>
     <row r="120" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B120" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C120" t="s">
         <v>1</v>
       </c>
       <c r="D120">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E120">
+        <v>3</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>7</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>2</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>2</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <v>2</v>
+      </c>
+      <c r="S120">
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <v>0</v>
+      </c>
+      <c r="U120">
+        <v>2</v>
+      </c>
+      <c r="V120">
+        <v>0</v>
+      </c>
+      <c r="W120">
+        <v>0</v>
+      </c>
+      <c r="X120">
+        <v>1</v>
+      </c>
+      <c r="Y120">
+        <v>0</v>
+      </c>
+      <c r="Z120">
+        <v>0</v>
+      </c>
+      <c r="AA120">
         <v>17</v>
       </c>
-      <c r="F120">
-        <v>4</v>
-      </c>
-      <c r="G120">
-        <v>22</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <v>6</v>
-      </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
-      <c r="K120">
-        <v>6</v>
-      </c>
-      <c r="L120">
-        <v>0</v>
-      </c>
-      <c r="M120">
-        <v>0</v>
-      </c>
-      <c r="N120">
-        <v>0</v>
-      </c>
-      <c r="O120">
-        <v>0</v>
-      </c>
-      <c r="P120">
-        <v>0</v>
-      </c>
-      <c r="Q120">
-        <v>0</v>
-      </c>
-      <c r="R120">
-        <v>2</v>
-      </c>
-      <c r="S120">
-        <v>0</v>
-      </c>
-      <c r="T120">
-        <v>0</v>
-      </c>
-      <c r="U120">
-        <v>2</v>
-      </c>
-      <c r="V120">
-        <v>0</v>
-      </c>
-      <c r="W120">
-        <v>0</v>
-      </c>
-      <c r="X120">
-        <v>1</v>
-      </c>
-      <c r="Y120">
-        <v>0</v>
-      </c>
-      <c r="Z120">
-        <v>1</v>
-      </c>
-      <c r="AA120">
-        <v>83</v>
-      </c>
       <c r="AB120">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AC120">
         <v>0</v>
@@ -17765,25 +17751,25 @@
         <v>0</v>
       </c>
       <c r="AE120">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF120">
         <v>0</v>
       </c>
       <c r="AG120">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="AH120">
         <v>0</v>
       </c>
       <c r="AI120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ120">
         <v>0</v>
       </c>
       <c r="AK120">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL120">
         <v>1</v>
@@ -17798,13 +17784,13 @@
         <v>0</v>
       </c>
       <c r="AP120">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="AQ120">
         <v>1</v>
       </c>
-      <c r="AR120">
-        <v>0</v>
+      <c r="AR120" t="s">
+        <v>48</v>
       </c>
       <c r="AS120" t="s">
         <v>44</v>
@@ -17812,88 +17798,88 @@
     </row>
     <row r="121" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B121" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
       </c>
       <c r="D121">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E121">
         <v>17</v>
       </c>
       <c r="F121">
+        <v>3</v>
+      </c>
+      <c r="G121">
+        <v>36</v>
+      </c>
+      <c r="H121">
+        <v>8</v>
+      </c>
+      <c r="I121">
+        <v>8</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>8</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <v>10</v>
+      </c>
+      <c r="S121">
+        <v>0</v>
+      </c>
+      <c r="T121">
+        <v>0</v>
+      </c>
+      <c r="U121">
+        <v>10</v>
+      </c>
+      <c r="V121">
+        <v>0</v>
+      </c>
+      <c r="W121">
+        <v>0</v>
+      </c>
+      <c r="X121">
+        <v>1</v>
+      </c>
+      <c r="Y121">
+        <v>0</v>
+      </c>
+      <c r="Z121">
         <v>4</v>
       </c>
-      <c r="G121">
-        <v>22</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121">
-        <v>6</v>
-      </c>
-      <c r="J121">
-        <v>0</v>
-      </c>
-      <c r="K121">
-        <v>6</v>
-      </c>
-      <c r="L121">
-        <v>0</v>
-      </c>
-      <c r="M121">
-        <v>0</v>
-      </c>
-      <c r="N121">
-        <v>0</v>
-      </c>
-      <c r="O121">
-        <v>0</v>
-      </c>
-      <c r="P121">
-        <v>0</v>
-      </c>
-      <c r="Q121">
-        <v>0</v>
-      </c>
-      <c r="R121">
-        <v>2</v>
-      </c>
-      <c r="S121">
-        <v>0</v>
-      </c>
-      <c r="T121">
-        <v>0</v>
-      </c>
-      <c r="U121">
-        <v>2</v>
-      </c>
-      <c r="V121">
-        <v>0</v>
-      </c>
-      <c r="W121">
-        <v>0</v>
-      </c>
-      <c r="X121">
-        <v>1</v>
-      </c>
-      <c r="Y121">
-        <v>0</v>
-      </c>
-      <c r="Z121">
-        <v>1</v>
-      </c>
       <c r="AA121">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="AB121">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AC121">
         <v>0</v>
@@ -17908,19 +17894,19 @@
         <v>0</v>
       </c>
       <c r="AG121">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AH121">
         <v>0</v>
       </c>
       <c r="AI121">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AJ121">
         <v>0</v>
       </c>
       <c r="AK121">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AL121">
         <v>1</v>
@@ -17935,13 +17921,13 @@
         <v>0</v>
       </c>
       <c r="AP121">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="AQ121">
         <v>1</v>
       </c>
-      <c r="AR121">
-        <v>0</v>
+      <c r="AR121" t="s">
+        <v>48</v>
       </c>
       <c r="AS121" t="s">
         <v>44</v>
@@ -17949,10 +17935,10 @@
     </row>
     <row r="122" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B122" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
@@ -17961,25 +17947,25 @@
         <v>9</v>
       </c>
       <c r="E122">
+        <v>6</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>10</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
         <v>3</v>
       </c>
-      <c r="F122">
-        <v>1</v>
-      </c>
-      <c r="G122">
-        <v>7</v>
-      </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="I122">
-        <v>2</v>
-      </c>
       <c r="J122">
         <v>0</v>
       </c>
       <c r="K122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L122">
         <v>0</v>
@@ -18027,37 +18013,37 @@
         <v>0</v>
       </c>
       <c r="AA122">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AB122">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC122">
         <v>0</v>
       </c>
       <c r="AD122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE122">
         <v>1</v>
       </c>
       <c r="AF122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG122">
         <v>5</v>
       </c>
       <c r="AH122">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK122">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL122">
         <v>1</v>
@@ -18072,13 +18058,13 @@
         <v>0</v>
       </c>
       <c r="AP122">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="AQ122">
         <v>1</v>
       </c>
-      <c r="AR122">
-        <v>0</v>
+      <c r="AR122" t="s">
+        <v>48</v>
       </c>
       <c r="AS122" t="s">
         <v>44</v>
@@ -18086,40 +18072,40 @@
     </row>
     <row r="123" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B123" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
       </c>
       <c r="D123">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E123">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F123">
         <v>3</v>
       </c>
       <c r="G123">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="H123">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J123">
         <v>0</v>
       </c>
       <c r="K123">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L123">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M123">
         <v>0</v>
@@ -18137,7 +18123,7 @@
         <v>0</v>
       </c>
       <c r="R123">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S123">
         <v>0</v>
@@ -18146,7 +18132,7 @@
         <v>0</v>
       </c>
       <c r="U123">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="V123">
         <v>0</v>
@@ -18161,19 +18147,19 @@
         <v>0</v>
       </c>
       <c r="Z123">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA123">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="AB123">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC123">
         <v>0</v>
       </c>
       <c r="AD123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE123">
         <v>4</v>
@@ -18185,16 +18171,16 @@
         <v>39</v>
       </c>
       <c r="AH123">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI123">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ123">
         <v>0</v>
       </c>
       <c r="AK123">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL123">
         <v>1</v>
@@ -18206,16 +18192,16 @@
         <v>0</v>
       </c>
       <c r="AO123">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AP123">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AQ123">
         <v>1</v>
       </c>
-      <c r="AR123">
-        <v>0</v>
+      <c r="AR123" t="s">
+        <v>48</v>
       </c>
       <c r="AS123" t="s">
         <v>44</v>
@@ -18223,112 +18209,112 @@
     </row>
     <row r="124" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B124" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C124" t="s">
         <v>1</v>
       </c>
       <c r="D124">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E124">
+        <v>15</v>
+      </c>
+      <c r="F124">
+        <v>3</v>
+      </c>
+      <c r="G124">
+        <v>24</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
         <v>6</v>
       </c>
-      <c r="F124">
-        <v>1</v>
-      </c>
-      <c r="G124">
-        <v>10</v>
-      </c>
-      <c r="H124">
-        <v>1</v>
-      </c>
-      <c r="I124">
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>6</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <v>1</v>
+      </c>
+      <c r="S124">
+        <v>0</v>
+      </c>
+      <c r="T124">
+        <v>0</v>
+      </c>
+      <c r="U124">
+        <v>1</v>
+      </c>
+      <c r="V124">
+        <v>0</v>
+      </c>
+      <c r="W124">
+        <v>0</v>
+      </c>
+      <c r="X124">
+        <v>1</v>
+      </c>
+      <c r="Y124">
+        <v>0</v>
+      </c>
+      <c r="Z124">
         <v>3</v>
       </c>
-      <c r="J124">
-        <v>0</v>
-      </c>
-      <c r="K124">
+      <c r="AA124">
+        <v>78</v>
+      </c>
+      <c r="AB124">
+        <v>15</v>
+      </c>
+      <c r="AC124">
+        <v>0</v>
+      </c>
+      <c r="AD124">
+        <v>0</v>
+      </c>
+      <c r="AE124">
+        <v>4</v>
+      </c>
+      <c r="AF124">
+        <v>0</v>
+      </c>
+      <c r="AG124">
+        <v>37</v>
+      </c>
+      <c r="AH124">
+        <v>0</v>
+      </c>
+      <c r="AI124">
         <v>3</v>
       </c>
-      <c r="L124">
-        <v>0</v>
-      </c>
-      <c r="M124">
-        <v>0</v>
-      </c>
-      <c r="N124">
-        <v>0</v>
-      </c>
-      <c r="O124">
-        <v>0</v>
-      </c>
-      <c r="P124">
-        <v>0</v>
-      </c>
-      <c r="Q124">
-        <v>0</v>
-      </c>
-      <c r="R124">
-        <v>2</v>
-      </c>
-      <c r="S124">
-        <v>0</v>
-      </c>
-      <c r="T124">
-        <v>0</v>
-      </c>
-      <c r="U124">
-        <v>2</v>
-      </c>
-      <c r="V124">
-        <v>0</v>
-      </c>
-      <c r="W124">
-        <v>0</v>
-      </c>
-      <c r="X124">
-        <v>1</v>
-      </c>
-      <c r="Y124">
-        <v>0</v>
-      </c>
-      <c r="Z124">
-        <v>0</v>
-      </c>
-      <c r="AA124">
-        <v>26</v>
-      </c>
-      <c r="AB124">
-        <v>6</v>
-      </c>
-      <c r="AC124">
-        <v>0</v>
-      </c>
-      <c r="AD124">
-        <v>1</v>
-      </c>
-      <c r="AE124">
-        <v>1</v>
-      </c>
-      <c r="AF124">
-        <v>2</v>
-      </c>
-      <c r="AG124">
-        <v>5</v>
-      </c>
-      <c r="AH124">
-        <v>4</v>
-      </c>
-      <c r="AI124">
-        <v>2</v>
-      </c>
       <c r="AJ124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK124">
         <v>4</v>
@@ -18346,13 +18332,13 @@
         <v>0</v>
       </c>
       <c r="AP124">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="AQ124">
         <v>1</v>
       </c>
-      <c r="AR124">
-        <v>0</v>
+      <c r="AR124" t="s">
+        <v>48</v>
       </c>
       <c r="AS124" t="s">
         <v>44</v>
@@ -18360,40 +18346,40 @@
     </row>
     <row r="125" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B125" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C125" t="s">
         <v>1</v>
       </c>
       <c r="D125">
+        <v>7</v>
+      </c>
+      <c r="E125">
         <v>14</v>
-      </c>
-      <c r="E125">
-        <v>23</v>
       </c>
       <c r="F125">
         <v>3</v>
       </c>
       <c r="G125">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="H125">
         <v>0</v>
       </c>
       <c r="I125">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J125">
         <v>0</v>
       </c>
       <c r="K125">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M125">
         <v>0</v>
@@ -18411,7 +18397,7 @@
         <v>0</v>
       </c>
       <c r="R125">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S125">
         <v>0</v>
@@ -18420,7 +18406,7 @@
         <v>0</v>
       </c>
       <c r="U125">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V125">
         <v>0</v>
@@ -18435,19 +18421,19 @@
         <v>0</v>
       </c>
       <c r="Z125">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA125">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="AB125">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC125">
         <v>0</v>
       </c>
       <c r="AD125">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE125">
         <v>4</v>
@@ -18456,19 +18442,19 @@
         <v>0</v>
       </c>
       <c r="AG125">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AH125">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI125">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AJ125">
         <v>0</v>
       </c>
       <c r="AK125">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="AL125">
         <v>1</v>
@@ -18480,16 +18466,16 @@
         <v>0</v>
       </c>
       <c r="AO125">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AP125">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AQ125">
         <v>1</v>
       </c>
-      <c r="AR125">
-        <v>0</v>
+      <c r="AR125" t="s">
+        <v>48</v>
       </c>
       <c r="AS125" t="s">
         <v>44</v>
@@ -18497,37 +18483,37 @@
     </row>
     <row r="126" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B126" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C126" t="s">
         <v>1</v>
       </c>
       <c r="D126">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E126">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F126">
         <v>3</v>
       </c>
       <c r="G126">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H126">
         <v>0</v>
       </c>
       <c r="I126">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J126">
         <v>0</v>
       </c>
       <c r="K126">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L126">
         <v>0</v>
@@ -18572,13 +18558,13 @@
         <v>0</v>
       </c>
       <c r="Z126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA126">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AB126">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC126">
         <v>0</v>
@@ -18620,13 +18606,13 @@
         <v>0</v>
       </c>
       <c r="AP126">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ126">
         <v>1</v>
       </c>
-      <c r="AR126">
-        <v>0</v>
+      <c r="AR126" t="s">
+        <v>48</v>
       </c>
       <c r="AS126" t="s">
         <v>44</v>
@@ -18634,112 +18620,112 @@
     </row>
     <row r="127" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B127" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C127" t="s">
         <v>1</v>
       </c>
       <c r="D127">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E127">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>10</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
         <v>3</v>
       </c>
-      <c r="G127">
-        <v>16</v>
-      </c>
-      <c r="H127">
-        <v>0</v>
-      </c>
-      <c r="I127">
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>3</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <v>2</v>
+      </c>
+      <c r="S127">
+        <v>0</v>
+      </c>
+      <c r="T127">
+        <v>0</v>
+      </c>
+      <c r="U127">
+        <v>2</v>
+      </c>
+      <c r="V127">
+        <v>0</v>
+      </c>
+      <c r="W127">
+        <v>0</v>
+      </c>
+      <c r="X127">
+        <v>1</v>
+      </c>
+      <c r="Y127">
+        <v>0</v>
+      </c>
+      <c r="Z127">
+        <v>0</v>
+      </c>
+      <c r="AA127">
+        <v>26</v>
+      </c>
+      <c r="AB127">
+        <v>6</v>
+      </c>
+      <c r="AC127">
+        <v>0</v>
+      </c>
+      <c r="AD127">
+        <v>1</v>
+      </c>
+      <c r="AE127">
+        <v>1</v>
+      </c>
+      <c r="AF127">
+        <v>2</v>
+      </c>
+      <c r="AG127">
         <v>5</v>
       </c>
-      <c r="J127">
-        <v>0</v>
-      </c>
-      <c r="K127">
-        <v>5</v>
-      </c>
-      <c r="L127">
-        <v>0</v>
-      </c>
-      <c r="M127">
-        <v>0</v>
-      </c>
-      <c r="N127">
-        <v>0</v>
-      </c>
-      <c r="O127">
-        <v>0</v>
-      </c>
-      <c r="P127">
-        <v>0</v>
-      </c>
-      <c r="Q127">
-        <v>0</v>
-      </c>
-      <c r="R127">
-        <v>1</v>
-      </c>
-      <c r="S127">
-        <v>0</v>
-      </c>
-      <c r="T127">
-        <v>0</v>
-      </c>
-      <c r="U127">
-        <v>1</v>
-      </c>
-      <c r="V127">
-        <v>0</v>
-      </c>
-      <c r="W127">
-        <v>0</v>
-      </c>
-      <c r="X127">
-        <v>1</v>
-      </c>
-      <c r="Y127">
-        <v>0</v>
-      </c>
-      <c r="Z127">
-        <v>1</v>
-      </c>
-      <c r="AA127">
-        <v>73</v>
-      </c>
-      <c r="AB127">
-        <v>14</v>
-      </c>
-      <c r="AC127">
-        <v>0</v>
-      </c>
-      <c r="AD127">
-        <v>0</v>
-      </c>
-      <c r="AE127">
+      <c r="AH127">
         <v>4</v>
       </c>
-      <c r="AF127">
-        <v>0</v>
-      </c>
-      <c r="AG127">
-        <v>37</v>
-      </c>
-      <c r="AH127">
-        <v>0</v>
-      </c>
       <c r="AI127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK127">
         <v>4</v>
@@ -18757,13 +18743,13 @@
         <v>0</v>
       </c>
       <c r="AP127">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AQ127">
         <v>1</v>
       </c>
-      <c r="AR127">
-        <v>0</v>
+      <c r="AR127" t="s">
+        <v>48</v>
       </c>
       <c r="AS127" t="s">
         <v>44</v>
@@ -18771,88 +18757,88 @@
     </row>
     <row r="128" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B128" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C128" t="s">
         <v>1</v>
       </c>
       <c r="D128">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E128">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F128">
         <v>3</v>
       </c>
       <c r="G128">
+        <v>41</v>
+      </c>
+      <c r="H128">
+        <v>6</v>
+      </c>
+      <c r="I128">
+        <v>9</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>9</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="R128">
+        <v>2</v>
+      </c>
+      <c r="S128">
+        <v>0</v>
+      </c>
+      <c r="T128">
+        <v>0</v>
+      </c>
+      <c r="U128">
+        <v>2</v>
+      </c>
+      <c r="V128">
+        <v>0</v>
+      </c>
+      <c r="W128">
+        <v>0</v>
+      </c>
+      <c r="X128">
+        <v>1</v>
+      </c>
+      <c r="Y128">
+        <v>0</v>
+      </c>
+      <c r="Z128">
+        <v>4</v>
+      </c>
+      <c r="AA128">
+        <v>94</v>
+      </c>
+      <c r="AB128">
         <v>16</v>
-      </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
-      <c r="I128">
-        <v>5</v>
-      </c>
-      <c r="J128">
-        <v>0</v>
-      </c>
-      <c r="K128">
-        <v>5</v>
-      </c>
-      <c r="L128">
-        <v>0</v>
-      </c>
-      <c r="M128">
-        <v>0</v>
-      </c>
-      <c r="N128">
-        <v>0</v>
-      </c>
-      <c r="O128">
-        <v>0</v>
-      </c>
-      <c r="P128">
-        <v>0</v>
-      </c>
-      <c r="Q128">
-        <v>0</v>
-      </c>
-      <c r="R128">
-        <v>1</v>
-      </c>
-      <c r="S128">
-        <v>0</v>
-      </c>
-      <c r="T128">
-        <v>0</v>
-      </c>
-      <c r="U128">
-        <v>1</v>
-      </c>
-      <c r="V128">
-        <v>0</v>
-      </c>
-      <c r="W128">
-        <v>0</v>
-      </c>
-      <c r="X128">
-        <v>1</v>
-      </c>
-      <c r="Y128">
-        <v>0</v>
-      </c>
-      <c r="Z128">
-        <v>1</v>
-      </c>
-      <c r="AA128">
-        <v>73</v>
-      </c>
-      <c r="AB128">
-        <v>14</v>
       </c>
       <c r="AC128">
         <v>0</v>
@@ -18879,7 +18865,7 @@
         <v>0</v>
       </c>
       <c r="AK128">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL128">
         <v>1</v>
@@ -18894,13 +18880,13 @@
         <v>0</v>
       </c>
       <c r="AP128">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AQ128">
         <v>1</v>
       </c>
-      <c r="AR128">
-        <v>0</v>
+      <c r="AR128" t="s">
+        <v>48</v>
       </c>
       <c r="AS128" t="s">
         <v>44</v>
@@ -18908,88 +18894,88 @@
     </row>
     <row r="129" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B129" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C129" t="s">
         <v>1</v>
       </c>
       <c r="D129">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E129">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G129">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129">
+        <v>8</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>8</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129">
+        <v>8</v>
+      </c>
+      <c r="S129">
+        <v>0</v>
+      </c>
+      <c r="T129">
+        <v>0</v>
+      </c>
+      <c r="U129">
+        <v>8</v>
+      </c>
+      <c r="V129">
+        <v>0</v>
+      </c>
+      <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="X129">
+        <v>1</v>
+      </c>
+      <c r="Y129">
+        <v>0</v>
+      </c>
+      <c r="Z129">
         <v>3</v>
       </c>
-      <c r="J129">
-        <v>0</v>
-      </c>
-      <c r="K129">
-        <v>3</v>
-      </c>
-      <c r="L129">
-        <v>0</v>
-      </c>
-      <c r="M129">
-        <v>0</v>
-      </c>
-      <c r="N129">
-        <v>0</v>
-      </c>
-      <c r="O129">
-        <v>0</v>
-      </c>
-      <c r="P129">
-        <v>0</v>
-      </c>
-      <c r="Q129">
-        <v>0</v>
-      </c>
-      <c r="R129">
-        <v>2</v>
-      </c>
-      <c r="S129">
-        <v>0</v>
-      </c>
-      <c r="T129">
-        <v>0</v>
-      </c>
-      <c r="U129">
-        <v>2</v>
-      </c>
-      <c r="V129">
-        <v>0</v>
-      </c>
-      <c r="W129">
-        <v>0</v>
-      </c>
-      <c r="X129">
-        <v>1</v>
-      </c>
-      <c r="Y129">
-        <v>0</v>
-      </c>
-      <c r="Z129">
-        <v>0</v>
-      </c>
       <c r="AA129">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="AB129">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AC129">
         <v>0</v>
@@ -18998,25 +18984,25 @@
         <v>1</v>
       </c>
       <c r="AE129">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AF129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG129">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="AH129">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI129">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK129">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AL129">
         <v>1</v>
@@ -19031,13 +19017,13 @@
         <v>0</v>
       </c>
       <c r="AP129">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="AQ129">
         <v>1</v>
       </c>
-      <c r="AR129">
-        <v>0</v>
+      <c r="AR129" t="s">
+        <v>48</v>
       </c>
       <c r="AS129" t="s">
         <v>44</v>
@@ -19045,37 +19031,37 @@
     </row>
     <row r="130" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B130" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C130" t="s">
         <v>1</v>
       </c>
       <c r="D130">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E130">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F130">
         <v>3</v>
       </c>
       <c r="G130">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
         <v>6</v>
       </c>
-      <c r="I130">
-        <v>9</v>
-      </c>
       <c r="J130">
         <v>0</v>
       </c>
       <c r="K130">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L130">
         <v>0</v>
@@ -19096,7 +19082,7 @@
         <v>0</v>
       </c>
       <c r="R130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S130">
         <v>0</v>
@@ -19105,7 +19091,7 @@
         <v>0</v>
       </c>
       <c r="U130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V130">
         <v>0</v>
@@ -19120,13 +19106,13 @@
         <v>0</v>
       </c>
       <c r="Z130">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA130">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="AB130">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AC130">
         <v>0</v>
@@ -19153,7 +19139,7 @@
         <v>0</v>
       </c>
       <c r="AK130">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL130">
         <v>1</v>
@@ -19168,13 +19154,13 @@
         <v>0</v>
       </c>
       <c r="AP130">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AQ130">
         <v>1</v>
       </c>
-      <c r="AR130">
-        <v>0</v>
+      <c r="AR130" t="s">
+        <v>48</v>
       </c>
       <c r="AS130" t="s">
         <v>44</v>
@@ -19182,10 +19168,10 @@
     </row>
     <row r="131" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B131" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C131" t="s">
         <v>1</v>
@@ -19194,19 +19180,19 @@
         <v>13</v>
       </c>
       <c r="E131">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G131">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -19215,7 +19201,7 @@
         <v>8</v>
       </c>
       <c r="L131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M131">
         <v>0</v>
@@ -19233,7 +19219,7 @@
         <v>0</v>
       </c>
       <c r="R131">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S131">
         <v>0</v>
@@ -19242,7 +19228,7 @@
         <v>0</v>
       </c>
       <c r="U131">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V131">
         <v>0</v>
@@ -19257,19 +19243,19 @@
         <v>0</v>
       </c>
       <c r="Z131">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA131">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="AB131">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AC131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE131">
         <v>5</v>
@@ -19278,19 +19264,19 @@
         <v>0</v>
       </c>
       <c r="AG131">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH131">
         <v>0</v>
       </c>
       <c r="AI131">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AJ131">
         <v>0</v>
       </c>
       <c r="AK131">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AL131">
         <v>1</v>
@@ -19305,13 +19291,13 @@
         <v>0</v>
       </c>
       <c r="AP131">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AQ131">
         <v>1</v>
       </c>
-      <c r="AR131">
-        <v>0</v>
+      <c r="AR131" t="s">
+        <v>48</v>
       </c>
       <c r="AS131" t="s">
         <v>44</v>
@@ -19319,37 +19305,37 @@
     </row>
     <row r="132" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B132" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C132" t="s">
         <v>1</v>
       </c>
       <c r="D132">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E132">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F132">
         <v>3</v>
       </c>
       <c r="G132">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J132">
         <v>0</v>
       </c>
       <c r="K132">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L132">
         <v>0</v>
@@ -19394,13 +19380,13 @@
         <v>0</v>
       </c>
       <c r="Z132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA132">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AB132">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC132">
         <v>0</v>
@@ -19442,13 +19428,13 @@
         <v>0</v>
       </c>
       <c r="AP132">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="AQ132">
         <v>1</v>
       </c>
-      <c r="AR132">
-        <v>0</v>
+      <c r="AR132" t="s">
+        <v>48</v>
       </c>
       <c r="AS132" t="s">
         <v>44</v>
@@ -19456,40 +19442,40 @@
     </row>
     <row r="133" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B133" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C133" t="s">
         <v>1</v>
       </c>
       <c r="D133">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E133">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G133">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J133">
         <v>0</v>
       </c>
       <c r="K133">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M133">
         <v>0</v>
@@ -19507,7 +19493,7 @@
         <v>0</v>
       </c>
       <c r="R133">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S133">
         <v>0</v>
@@ -19516,7 +19502,7 @@
         <v>0</v>
       </c>
       <c r="U133">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V133">
         <v>0</v>
@@ -19531,40 +19517,40 @@
         <v>0</v>
       </c>
       <c r="Z133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA133">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="AB133">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AC133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD133">
         <v>0</v>
       </c>
       <c r="AE133">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF133">
         <v>0</v>
       </c>
       <c r="AG133">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AH133">
         <v>0</v>
       </c>
       <c r="AI133">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ133">
         <v>0</v>
       </c>
       <c r="AK133">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AL133">
         <v>1</v>
@@ -19579,13 +19565,13 @@
         <v>0</v>
       </c>
       <c r="AP133">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AQ133">
         <v>1</v>
       </c>
-      <c r="AR133">
-        <v>0</v>
+      <c r="AR133" t="s">
+        <v>48</v>
       </c>
       <c r="AS133" t="s">
         <v>44</v>
@@ -19593,37 +19579,37 @@
     </row>
     <row r="134" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B134" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C134" t="s">
         <v>1</v>
       </c>
       <c r="D134">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E134">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F134">
         <v>3</v>
       </c>
       <c r="G134">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I134">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J134">
         <v>0</v>
       </c>
       <c r="K134">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L134">
         <v>0</v>
@@ -19644,7 +19630,7 @@
         <v>0</v>
       </c>
       <c r="R134">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="S134">
         <v>0</v>
@@ -19653,7 +19639,7 @@
         <v>0</v>
       </c>
       <c r="U134">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="V134">
         <v>0</v>
@@ -19662,7 +19648,7 @@
         <v>0</v>
       </c>
       <c r="X134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y134">
         <v>0</v>
@@ -19671,10 +19657,10 @@
         <v>1</v>
       </c>
       <c r="AA134">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="AB134">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC134">
         <v>0</v>
@@ -19683,25 +19669,25 @@
         <v>0</v>
       </c>
       <c r="AE134">
+        <v>3</v>
+      </c>
+      <c r="AF134">
+        <v>1</v>
+      </c>
+      <c r="AG134">
+        <v>57</v>
+      </c>
+      <c r="AH134">
+        <v>2</v>
+      </c>
+      <c r="AI134">
         <v>4</v>
       </c>
-      <c r="AF134">
-        <v>0</v>
-      </c>
-      <c r="AG134">
-        <v>37</v>
-      </c>
-      <c r="AH134">
-        <v>0</v>
-      </c>
-      <c r="AI134">
-        <v>3</v>
-      </c>
       <c r="AJ134">
         <v>0</v>
       </c>
       <c r="AK134">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="AL134">
         <v>1</v>
@@ -19716,13 +19702,13 @@
         <v>0</v>
       </c>
       <c r="AP134">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="AQ134">
         <v>1</v>
       </c>
-      <c r="AR134">
-        <v>0</v>
+      <c r="AR134" t="s">
+        <v>48</v>
       </c>
       <c r="AS134" t="s">
         <v>44</v>
@@ -19730,37 +19716,37 @@
     </row>
     <row r="135" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B135" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C135" t="s">
         <v>1</v>
       </c>
       <c r="D135">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E135">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>88</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
         <v>3</v>
       </c>
-      <c r="G135">
-        <v>22</v>
-      </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-      <c r="I135">
-        <v>5</v>
-      </c>
       <c r="J135">
         <v>0</v>
       </c>
       <c r="K135">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L135">
         <v>0</v>
@@ -19781,7 +19767,7 @@
         <v>0</v>
       </c>
       <c r="R135">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="S135">
         <v>0</v>
@@ -19790,7 +19776,7 @@
         <v>0</v>
       </c>
       <c r="U135">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="V135">
         <v>0</v>
@@ -19799,7 +19785,7 @@
         <v>0</v>
       </c>
       <c r="X135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y135">
         <v>0</v>
@@ -19808,10 +19794,10 @@
         <v>1</v>
       </c>
       <c r="AA135">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB135">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AC135">
         <v>0</v>
@@ -19820,16 +19806,16 @@
         <v>0</v>
       </c>
       <c r="AE135">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF135">
         <v>0</v>
       </c>
       <c r="AG135">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="AH135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI135">
         <v>3</v>
@@ -19838,7 +19824,7 @@
         <v>0</v>
       </c>
       <c r="AK135">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="AL135">
         <v>1</v>
@@ -19853,13 +19839,13 @@
         <v>0</v>
       </c>
       <c r="AP135">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="AQ135">
         <v>1</v>
       </c>
-      <c r="AR135">
-        <v>0</v>
+      <c r="AR135" t="s">
+        <v>48</v>
       </c>
       <c r="AS135" t="s">
         <v>44</v>
@@ -19867,412 +19853,138 @@
     </row>
     <row r="136" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>315</v>
+        <v>44</v>
       </c>
       <c r="B136" t="s">
-        <v>316</v>
+        <v>44</v>
       </c>
       <c r="C136" t="s">
-        <v>1</v>
-      </c>
-      <c r="D136">
-        <v>13</v>
-      </c>
-      <c r="E136">
-        <v>17</v>
-      </c>
-      <c r="F136">
-        <v>3</v>
-      </c>
-      <c r="G136">
-        <v>68</v>
-      </c>
-      <c r="H136">
-        <v>2</v>
-      </c>
-      <c r="I136">
-        <v>8</v>
-      </c>
-      <c r="J136">
-        <v>0</v>
-      </c>
-      <c r="K136">
-        <v>8</v>
-      </c>
-      <c r="L136">
-        <v>0</v>
-      </c>
-      <c r="M136">
-        <v>0</v>
-      </c>
-      <c r="N136">
-        <v>0</v>
-      </c>
-      <c r="O136">
-        <v>0</v>
-      </c>
-      <c r="P136">
-        <v>0</v>
-      </c>
-      <c r="Q136">
-        <v>0</v>
-      </c>
-      <c r="R136">
-        <v>20</v>
-      </c>
-      <c r="S136">
-        <v>0</v>
-      </c>
-      <c r="T136">
-        <v>0</v>
-      </c>
-      <c r="U136">
-        <v>20</v>
-      </c>
-      <c r="V136">
-        <v>0</v>
-      </c>
-      <c r="W136">
-        <v>0</v>
-      </c>
-      <c r="X136">
-        <v>2</v>
-      </c>
-      <c r="Y136">
-        <v>0</v>
-      </c>
-      <c r="Z136">
-        <v>1</v>
-      </c>
-      <c r="AA136">
-        <v>116</v>
-      </c>
-      <c r="AB136">
-        <v>15</v>
-      </c>
-      <c r="AC136">
-        <v>0</v>
-      </c>
-      <c r="AD136">
-        <v>0</v>
-      </c>
-      <c r="AE136">
-        <v>3</v>
-      </c>
-      <c r="AF136">
-        <v>1</v>
-      </c>
-      <c r="AG136">
-        <v>57</v>
-      </c>
-      <c r="AH136">
-        <v>2</v>
-      </c>
-      <c r="AI136">
-        <v>4</v>
-      </c>
-      <c r="AJ136">
-        <v>0</v>
-      </c>
-      <c r="AK136">
-        <v>23</v>
-      </c>
-      <c r="AL136">
-        <v>1</v>
-      </c>
-      <c r="AM136">
-        <v>0</v>
-      </c>
-      <c r="AN136">
-        <v>0</v>
-      </c>
-      <c r="AO136">
-        <v>0</v>
-      </c>
-      <c r="AP136">
-        <v>123</v>
-      </c>
-      <c r="AQ136">
-        <v>1</v>
-      </c>
-      <c r="AR136">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="D136" t="s">
+        <v>44</v>
+      </c>
+      <c r="E136" t="s">
+        <v>44</v>
+      </c>
+      <c r="F136" t="s">
+        <v>44</v>
+      </c>
+      <c r="G136" t="s">
+        <v>44</v>
+      </c>
+      <c r="H136" t="s">
+        <v>44</v>
+      </c>
+      <c r="I136" t="s">
+        <v>44</v>
+      </c>
+      <c r="J136" t="s">
+        <v>44</v>
+      </c>
+      <c r="K136" t="s">
+        <v>44</v>
+      </c>
+      <c r="L136" t="s">
+        <v>44</v>
+      </c>
+      <c r="M136" t="s">
+        <v>44</v>
+      </c>
+      <c r="N136" t="s">
+        <v>44</v>
+      </c>
+      <c r="O136" t="s">
+        <v>44</v>
+      </c>
+      <c r="P136" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>44</v>
+      </c>
+      <c r="R136" t="s">
+        <v>44</v>
+      </c>
+      <c r="S136" t="s">
+        <v>44</v>
+      </c>
+      <c r="T136" t="s">
+        <v>44</v>
+      </c>
+      <c r="U136" t="s">
+        <v>44</v>
+      </c>
+      <c r="V136" t="s">
+        <v>44</v>
+      </c>
+      <c r="W136" t="s">
+        <v>44</v>
+      </c>
+      <c r="X136" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y136" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z136" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA136" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB136" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC136" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD136" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE136" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF136" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG136" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH136" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI136" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ136" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK136" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL136" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM136" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN136" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO136" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP136" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ136" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR136" t="s">
+        <v>44</v>
       </c>
       <c r="AS136" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="137" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>317</v>
-      </c>
-      <c r="B137" t="s">
-        <v>318</v>
-      </c>
-      <c r="C137" t="s">
-        <v>1</v>
-      </c>
-      <c r="D137">
-        <v>10</v>
-      </c>
-      <c r="E137">
-        <v>6</v>
-      </c>
-      <c r="F137">
-        <v>1</v>
-      </c>
-      <c r="G137">
-        <v>88</v>
-      </c>
-      <c r="H137">
-        <v>1</v>
-      </c>
-      <c r="I137">
-        <v>3</v>
-      </c>
-      <c r="J137">
-        <v>0</v>
-      </c>
-      <c r="K137">
-        <v>3</v>
-      </c>
-      <c r="L137">
-        <v>0</v>
-      </c>
-      <c r="M137">
-        <v>0</v>
-      </c>
-      <c r="N137">
-        <v>0</v>
-      </c>
-      <c r="O137">
-        <v>0</v>
-      </c>
-      <c r="P137">
-        <v>0</v>
-      </c>
-      <c r="Q137">
-        <v>0</v>
-      </c>
-      <c r="R137">
-        <v>21</v>
-      </c>
-      <c r="S137">
-        <v>0</v>
-      </c>
-      <c r="T137">
-        <v>0</v>
-      </c>
-      <c r="U137">
-        <v>21</v>
-      </c>
-      <c r="V137">
-        <v>0</v>
-      </c>
-      <c r="W137">
-        <v>0</v>
-      </c>
-      <c r="X137">
-        <v>2</v>
-      </c>
-      <c r="Y137">
-        <v>0</v>
-      </c>
-      <c r="Z137">
-        <v>1</v>
-      </c>
-      <c r="AA137">
-        <v>74</v>
-      </c>
-      <c r="AB137">
-        <v>6</v>
-      </c>
-      <c r="AC137">
-        <v>0</v>
-      </c>
-      <c r="AD137">
-        <v>0</v>
-      </c>
-      <c r="AE137">
-        <v>2</v>
-      </c>
-      <c r="AF137">
-        <v>0</v>
-      </c>
-      <c r="AG137">
-        <v>18</v>
-      </c>
-      <c r="AH137">
-        <v>2</v>
-      </c>
-      <c r="AI137">
-        <v>3</v>
-      </c>
-      <c r="AJ137">
-        <v>0</v>
-      </c>
-      <c r="AK137">
-        <v>24</v>
-      </c>
-      <c r="AL137">
-        <v>1</v>
-      </c>
-      <c r="AM137">
-        <v>0</v>
-      </c>
-      <c r="AN137">
-        <v>0</v>
-      </c>
-      <c r="AO137">
-        <v>0</v>
-      </c>
-      <c r="AP137">
-        <v>80</v>
-      </c>
-      <c r="AQ137">
-        <v>1</v>
-      </c>
-      <c r="AR137">
-        <v>0</v>
-      </c>
-      <c r="AS137" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="138" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>44</v>
-      </c>
-      <c r="B138" t="s">
-        <v>44</v>
-      </c>
-      <c r="C138" t="s">
-        <v>44</v>
-      </c>
-      <c r="D138" t="s">
-        <v>44</v>
-      </c>
-      <c r="E138" t="s">
-        <v>44</v>
-      </c>
-      <c r="F138" t="s">
-        <v>44</v>
-      </c>
-      <c r="G138" t="s">
-        <v>44</v>
-      </c>
-      <c r="H138" t="s">
-        <v>44</v>
-      </c>
-      <c r="I138" t="s">
-        <v>44</v>
-      </c>
-      <c r="J138" t="s">
-        <v>44</v>
-      </c>
-      <c r="K138" t="s">
-        <v>44</v>
-      </c>
-      <c r="L138" t="s">
-        <v>44</v>
-      </c>
-      <c r="M138" t="s">
-        <v>44</v>
-      </c>
-      <c r="N138" t="s">
-        <v>44</v>
-      </c>
-      <c r="O138" t="s">
-        <v>44</v>
-      </c>
-      <c r="P138" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q138" t="s">
-        <v>44</v>
-      </c>
-      <c r="R138" t="s">
-        <v>44</v>
-      </c>
-      <c r="S138" t="s">
-        <v>44</v>
-      </c>
-      <c r="T138" t="s">
-        <v>44</v>
-      </c>
-      <c r="U138" t="s">
-        <v>44</v>
-      </c>
-      <c r="V138" t="s">
-        <v>44</v>
-      </c>
-      <c r="W138" t="s">
-        <v>44</v>
-      </c>
-      <c r="X138" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y138" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z138" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA138" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB138" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC138" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD138" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE138" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF138" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG138" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH138" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI138" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ138" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK138" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL138" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM138" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN138" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO138" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP138" t="s">
-        <v>44</v>
-      </c>
-      <c r="AQ138" t="s">
-        <v>44</v>
-      </c>
-      <c r="AR138" t="s">
-        <v>44</v>
-      </c>
-      <c r="AS138" t="s">
         <v>44</v>
       </c>
     </row>
